--- a/raw_data/20200818_saline/20200818_Sensor2_Test_31.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_31.xlsx
@@ -1,1294 +1,1710 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AB5177-7836-459C-AE91-D9782DA6FFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>27371.408240</v>
+        <v>27371.408240000001</v>
       </c>
       <c r="B2" s="1">
-        <v>7.603169</v>
+        <v>7.6031690000000003</v>
       </c>
       <c r="C2" s="1">
-        <v>1245.980000</v>
+        <v>1245.98</v>
       </c>
       <c r="D2" s="1">
-        <v>-308.256000</v>
+        <v>-308.25599999999997</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>27381.769171</v>
       </c>
       <c r="G2" s="1">
-        <v>7.606047</v>
+        <v>7.6060470000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>1271.790000</v>
+        <v>1271.79</v>
       </c>
       <c r="I2" s="1">
-        <v>-265.933000</v>
+        <v>-265.93299999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>27392.542468</v>
       </c>
       <c r="L2" s="1">
-        <v>7.609040</v>
+        <v>7.6090400000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>1306.180000</v>
+        <v>1306.18</v>
       </c>
       <c r="N2" s="1">
-        <v>-203.658000</v>
+        <v>-203.65799999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>27403.039607</v>
+        <v>27403.039606999999</v>
       </c>
       <c r="Q2" s="1">
         <v>7.611955</v>
       </c>
       <c r="R2" s="1">
-        <v>1318.760000</v>
+        <v>1318.76</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.822000</v>
+        <v>-184.822</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>27413.384169</v>
+        <v>27413.384169000001</v>
       </c>
       <c r="V2" s="1">
-        <v>7.614829</v>
+        <v>7.6148290000000003</v>
       </c>
       <c r="W2" s="1">
-        <v>1331.530000</v>
+        <v>1331.53</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.253000</v>
+        <v>-171.25299999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>27423.125134</v>
+        <v>27423.125134000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>7.617535</v>
+        <v>7.6175350000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>1348.870000</v>
+        <v>1348.87</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.994000</v>
+        <v>-168.994</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>27433.391790</v>
+        <v>27433.391790000001</v>
       </c>
       <c r="AF2" s="1">
         <v>7.620387</v>
       </c>
       <c r="AG2" s="1">
-        <v>1361.660000</v>
+        <v>1361.66</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.684000</v>
+        <v>-178.684</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>27443.501747</v>
+        <v>27443.501746999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>7.623195</v>
+        <v>7.6231949999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1382.150000</v>
+        <v>1382.15</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.484000</v>
+        <v>-208.48400000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>27454.426131</v>
       </c>
       <c r="AP2" s="1">
-        <v>7.626229</v>
+        <v>7.6262290000000004</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1403.720000</v>
+        <v>1403.72</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.151000</v>
+        <v>-252.15100000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>27465.410564</v>
+        <v>27465.410564000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>7.629281</v>
+        <v>7.6292809999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1428.100000</v>
+        <v>1428.1</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.259000</v>
+        <v>-312.25900000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>27476.258533</v>
       </c>
       <c r="AZ2" s="1">
-        <v>7.632294</v>
+        <v>7.6322939999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1447.270000</v>
+        <v>1447.27</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.458000</v>
+        <v>-364.45800000000003</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>27487.194823</v>
+        <v>27487.194823000002</v>
       </c>
       <c r="BE2" s="1">
         <v>7.635332</v>
       </c>
       <c r="BF2" s="1">
-        <v>1532.080000</v>
+        <v>1532.08</v>
       </c>
       <c r="BG2" s="1">
-        <v>-613.627000</v>
+        <v>-613.62699999999995</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>27498.216458</v>
+        <v>27498.216457999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>7.638393</v>
+        <v>7.6383929999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1686.430000</v>
+        <v>1686.43</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1060.610000</v>
+        <v>-1060.6099999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>27509.722121</v>
+        <v>27509.722120999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>7.641589</v>
+        <v>7.6415889999999997</v>
       </c>
       <c r="BP2" s="1">
-        <v>1981.140000</v>
+        <v>1981.14</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1834.670000</v>
+        <v>-1834.67</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>27521.598362</v>
+        <v>27521.598362000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>7.644888</v>
+        <v>7.6448879999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2367.470000</v>
+        <v>2367.4699999999998</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2726.670000</v>
+        <v>-2726.67</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>27532.683915</v>
+        <v>27532.683915000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>7.647968</v>
+        <v>7.6479679999999997</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2851.030000</v>
+        <v>2851.03</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3706.540000</v>
+        <v>-3706.54</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>27543.661373</v>
+        <v>27543.661372999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>7.651017</v>
+        <v>7.6510170000000004</v>
       </c>
       <c r="CE2" s="1">
-        <v>4264.070000</v>
+        <v>4264.07</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6078.280000</v>
+        <v>-6078.28</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>27372.062959</v>
+        <v>27372.062958999999</v>
       </c>
       <c r="B3" s="1">
         <v>7.603351</v>
       </c>
       <c r="C3" s="1">
-        <v>1245.850000</v>
+        <v>1245.8499999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-308.056000</v>
+        <v>-308.05599999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>27382.422899</v>
+        <v>27382.422899000001</v>
       </c>
       <c r="G3" s="1">
-        <v>7.606229</v>
+        <v>7.6062289999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1271.440000</v>
+        <v>1271.44</v>
       </c>
       <c r="I3" s="1">
-        <v>-266.661000</v>
+        <v>-266.661</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>27392.946047</v>
+        <v>27392.946047000001</v>
       </c>
       <c r="L3" s="1">
-        <v>7.609152</v>
+        <v>7.6091519999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1306.830000</v>
+        <v>1306.83</v>
       </c>
       <c r="N3" s="1">
-        <v>-203.475000</v>
+        <v>-203.47499999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>27403.442370</v>
+        <v>27403.442370000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>7.612067</v>
+        <v>7.6120669999999997</v>
       </c>
       <c r="R3" s="1">
-        <v>1318.720000</v>
+        <v>1318.72</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.953000</v>
+        <v>-184.953</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>27413.727433</v>
       </c>
       <c r="V3" s="1">
-        <v>7.614924</v>
+        <v>7.6149240000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>1331.660000</v>
+        <v>1331.66</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.286000</v>
+        <v>-171.286</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>27423.507057</v>
+        <v>27423.507056999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>7.617641</v>
+        <v>7.6176409999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1348.920000</v>
+        <v>1348.92</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.835000</v>
+        <v>-168.83500000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>27433.772222</v>
       </c>
       <c r="AF3" s="1">
-        <v>7.620492</v>
+        <v>7.6204919999999996</v>
       </c>
       <c r="AG3" s="1">
-        <v>1361.650000</v>
+        <v>1361.65</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.686000</v>
+        <v>-178.68600000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>27443.927841</v>
+        <v>27443.927841000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>7.623313</v>
+        <v>7.6233129999999996</v>
       </c>
       <c r="AL3" s="1">
-        <v>1382.170000</v>
+        <v>1382.17</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.523000</v>
+        <v>-208.523</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>27454.851233</v>
+        <v>27454.851233000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>7.626348</v>
+        <v>7.6263480000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1403.730000</v>
+        <v>1403.73</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.178000</v>
+        <v>-252.178</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>27465.520147</v>
+        <v>27465.520146999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>7.629311</v>
+        <v>7.6293110000000004</v>
       </c>
       <c r="AV3" s="1">
-        <v>1428.080000</v>
+        <v>1428.08</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.259000</v>
+        <v>-312.25900000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>27476.623125</v>
+        <v>27476.623124999998</v>
       </c>
       <c r="AZ3" s="1">
-        <v>7.632395</v>
+        <v>7.6323949999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1447.310000</v>
+        <v>1447.31</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.458000</v>
+        <v>-364.45800000000003</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>27487.560375</v>
+        <v>27487.560375000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>7.635433</v>
+        <v>7.6354329999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1532.110000</v>
+        <v>1532.11</v>
       </c>
       <c r="BG3" s="1">
-        <v>-613.645000</v>
+        <v>-613.64499999999998</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>27498.593889</v>
       </c>
       <c r="BJ3" s="1">
-        <v>7.638498</v>
+        <v>7.6384980000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1686.290000</v>
+        <v>1686.29</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1060.640000</v>
+        <v>-1060.6400000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>27510.152153</v>
+        <v>27510.152152999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>7.641709</v>
+        <v>7.6417089999999996</v>
       </c>
       <c r="BP3" s="1">
-        <v>1980.860000</v>
+        <v>1980.86</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1834.890000</v>
+        <v>-1834.89</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>27522.093337</v>
+        <v>27522.093336999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>7.645026</v>
+        <v>7.6450259999999997</v>
       </c>
       <c r="BU3" s="1">
-        <v>2367.040000</v>
+        <v>2367.04</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2726.550000</v>
+        <v>-2726.55</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>27533.148203</v>
+        <v>27533.148203000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>7.648097</v>
+        <v>7.6480969999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2851.650000</v>
+        <v>2851.65</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3706.430000</v>
+        <v>-3706.43</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>27544.255619</v>
       </c>
       <c r="CD3" s="1">
-        <v>7.651182</v>
+        <v>7.6511820000000004</v>
       </c>
       <c r="CE3" s="1">
-        <v>4277.180000</v>
+        <v>4277.18</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6058.420000</v>
+        <v>-6058.42</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>27372.428511</v>
+        <v>27372.428510999998</v>
       </c>
       <c r="B4" s="1">
-        <v>7.603452</v>
+        <v>7.6034519999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1246.020000</v>
+        <v>1246.02</v>
       </c>
       <c r="D4" s="1">
-        <v>-308.008000</v>
+        <v>-308.00799999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>27382.803329</v>
+        <v>27382.803328999998</v>
       </c>
       <c r="G4" s="1">
-        <v>7.606334</v>
+        <v>7.6063340000000004</v>
       </c>
       <c r="H4" s="1">
-        <v>1270.750000</v>
+        <v>1270.75</v>
       </c>
       <c r="I4" s="1">
-        <v>-265.932000</v>
+        <v>-265.93200000000002</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>27393.288757</v>
+        <v>27393.288756999998</v>
       </c>
       <c r="L4" s="1">
-        <v>7.609247</v>
+        <v>7.6092469999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1306.570000</v>
+        <v>1306.57</v>
       </c>
       <c r="N4" s="1">
-        <v>-203.312000</v>
+        <v>-203.31200000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>27403.790053</v>
+        <v>27403.790053000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>7.612164</v>
+        <v>7.6121639999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1318.660000</v>
+        <v>1318.66</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.928000</v>
+        <v>-184.928</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>27414.074105</v>
       </c>
       <c r="V4" s="1">
-        <v>7.615021</v>
+        <v>7.6150209999999996</v>
       </c>
       <c r="W4" s="1">
-        <v>1331.590000</v>
+        <v>1331.59</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.198000</v>
+        <v>-171.19800000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>27423.951467</v>
+        <v>27423.951466999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>7.617764</v>
+        <v>7.6177640000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>1348.720000</v>
+        <v>1348.72</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.927000</v>
+        <v>-168.92699999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>27434.195343</v>
+        <v>27434.195342999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>7.620610</v>
+        <v>7.6206100000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1361.620000</v>
+        <v>1361.62</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.726000</v>
+        <v>-178.726</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>27444.262640</v>
+        <v>27444.262640000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>7.623406</v>
+        <v>7.6234060000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1382.170000</v>
+        <v>1382.17</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.522000</v>
+        <v>-208.52199999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>27455.210802</v>
+        <v>27455.210802000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>7.626447</v>
+        <v>7.6264469999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1403.730000</v>
+        <v>1403.73</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.168000</v>
+        <v>-252.16800000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>27465.866394</v>
+        <v>27465.866394000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>7.629407</v>
+        <v>7.6294069999999996</v>
       </c>
       <c r="AV4" s="1">
-        <v>1428.100000</v>
+        <v>1428.1</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.244000</v>
+        <v>-312.24400000000003</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>27476.977273</v>
       </c>
       <c r="AZ4" s="1">
-        <v>7.632494</v>
+        <v>7.6324940000000003</v>
       </c>
       <c r="BA4" s="1">
-        <v>1447.300000</v>
+        <v>1447.3</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.458000</v>
+        <v>-364.45800000000003</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>27488.284536</v>
+        <v>27488.284535999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>7.635635</v>
+        <v>7.6356349999999997</v>
       </c>
       <c r="BF4" s="1">
-        <v>1532.100000</v>
+        <v>1532.1</v>
       </c>
       <c r="BG4" s="1">
-        <v>-613.620000</v>
+        <v>-613.62</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>27499.343335</v>
+        <v>27499.343335000001</v>
       </c>
       <c r="BJ4" s="1">
         <v>7.638706</v>
       </c>
       <c r="BK4" s="1">
-        <v>1686.320000</v>
+        <v>1686.32</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1060.630000</v>
+        <v>-1060.6300000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>27510.551433</v>
+        <v>27510.551433000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>7.641820</v>
+        <v>7.6418200000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1980.970000</v>
+        <v>1980.97</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1835.000000</v>
+        <v>-1835</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>27522.504555</v>
       </c>
       <c r="BT4" s="1">
-        <v>7.645140</v>
+        <v>7.6451399999999996</v>
       </c>
       <c r="BU4" s="1">
-        <v>2367.220000</v>
+        <v>2367.2199999999998</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2726.730000</v>
+        <v>-2726.73</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>27533.582666</v>
+        <v>27533.582665999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>7.648217</v>
+        <v>7.6482169999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2850.110000</v>
+        <v>2850.11</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3706.500000</v>
+        <v>-3706.5</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>27545.112348</v>
+        <v>27545.112347999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>7.651420</v>
+        <v>7.6514199999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4274.400000</v>
+        <v>4274.3999999999996</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6079.170000</v>
+        <v>-6079.17</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>27372.771742</v>
+        <v>27372.771742000001</v>
       </c>
       <c r="B5" s="1">
         <v>7.603548</v>
       </c>
       <c r="C5" s="1">
-        <v>1246.220000</v>
+        <v>1246.22</v>
       </c>
       <c r="D5" s="1">
-        <v>-307.802000</v>
+        <v>-307.80200000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>27383.148546</v>
       </c>
       <c r="G5" s="1">
-        <v>7.606430</v>
+        <v>7.6064299999999996</v>
       </c>
       <c r="H5" s="1">
-        <v>1271.280000</v>
+        <v>1271.28</v>
       </c>
       <c r="I5" s="1">
-        <v>-266.060000</v>
+        <v>-266.06</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>27393.637940</v>
+        <v>27393.637940000001</v>
       </c>
       <c r="L5" s="1">
-        <v>7.609344</v>
+        <v>7.6093440000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1306.370000</v>
+        <v>1306.3699999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-203.480000</v>
+        <v>-203.48</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>27404.225046</v>
@@ -1297,1026 +1713,1026 @@
         <v>7.612285</v>
       </c>
       <c r="R5" s="1">
-        <v>1318.440000</v>
+        <v>1318.44</v>
       </c>
       <c r="S5" s="1">
-        <v>-185.007000</v>
+        <v>-185.00700000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>27414.498711</v>
       </c>
       <c r="V5" s="1">
-        <v>7.615139</v>
+        <v>7.6151390000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1331.630000</v>
+        <v>1331.63</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.303000</v>
+        <v>-171.303</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>27424.227708</v>
+        <v>27424.227707999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>7.617841</v>
+        <v>7.6178410000000003</v>
       </c>
       <c r="AB5" s="1">
-        <v>1348.880000</v>
+        <v>1348.88</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.029000</v>
+        <v>-169.029</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>27434.459215</v>
+        <v>27434.459214999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>7.620683</v>
+        <v>7.6206829999999997</v>
       </c>
       <c r="AG5" s="1">
-        <v>1361.620000</v>
+        <v>1361.62</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.679000</v>
+        <v>-178.679</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>27444.611329</v>
+        <v>27444.611328999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>7.623503</v>
+        <v>7.6235030000000004</v>
       </c>
       <c r="AL5" s="1">
-        <v>1382.170000</v>
+        <v>1382.17</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.546000</v>
+        <v>-208.54599999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>27455.570910</v>
+        <v>27455.570909999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>7.626547</v>
+        <v>7.6265470000000004</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1403.730000</v>
+        <v>1403.73</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.160000</v>
+        <v>-252.16</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>27466.231907</v>
+        <v>27466.231907000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>7.629509</v>
+        <v>7.6295089999999997</v>
       </c>
       <c r="AV5" s="1">
-        <v>1428.090000</v>
+        <v>1428.09</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.268000</v>
+        <v>-312.26799999999997</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>27477.695940</v>
+        <v>27477.695940000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>7.632693</v>
+        <v>7.6326929999999997</v>
       </c>
       <c r="BA5" s="1">
-        <v>1447.330000</v>
+        <v>1447.33</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.437000</v>
+        <v>-364.43700000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>27488.662487</v>
+        <v>27488.662487000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>7.635740</v>
+        <v>7.6357400000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1532.140000</v>
+        <v>1532.14</v>
       </c>
       <c r="BG5" s="1">
-        <v>-613.661000</v>
+        <v>-613.66099999999994</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>27499.748103</v>
+        <v>27499.748103000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>7.638819</v>
+        <v>7.6388189999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1686.310000</v>
+        <v>1686.31</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1060.720000</v>
+        <v>-1060.72</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>27510.945752</v>
       </c>
       <c r="BO5" s="1">
-        <v>7.641929</v>
+        <v>7.6419290000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1980.890000</v>
+        <v>1980.89</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1834.960000</v>
+        <v>-1834.96</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>27523.252488</v>
+        <v>27523.252487999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>7.645348</v>
+        <v>7.6453480000000003</v>
       </c>
       <c r="BU5" s="1">
-        <v>2367.620000</v>
+        <v>2367.62</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2726.890000</v>
+        <v>-2726.89</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>27534.350969</v>
+        <v>27534.350968999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>7.648431</v>
+        <v>7.6484310000000004</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2850.790000</v>
+        <v>2850.79</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3707.050000</v>
+        <v>-3707.05</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>27545.334875</v>
       </c>
       <c r="CD5" s="1">
-        <v>7.651482</v>
+        <v>7.6514819999999997</v>
       </c>
       <c r="CE5" s="1">
-        <v>4267.640000</v>
+        <v>4267.6400000000003</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6080.780000</v>
+        <v>-6080.78</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>27373.113982</v>
+        <v>27373.113981999999</v>
       </c>
       <c r="B6" s="1">
-        <v>7.603643</v>
+        <v>7.6036429999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1245.920000</v>
+        <v>1245.92</v>
       </c>
       <c r="D6" s="1">
-        <v>-308.135000</v>
+        <v>-308.13499999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>27383.497730</v>
+        <v>27383.497729999999</v>
       </c>
       <c r="G6" s="1">
-        <v>7.606527</v>
+        <v>7.6065269999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>1272.060000</v>
+        <v>1272.06</v>
       </c>
       <c r="I6" s="1">
-        <v>-266.022000</v>
+        <v>-266.02199999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>27394.060530</v>
+        <v>27394.060529999999</v>
       </c>
       <c r="L6" s="1">
-        <v>7.609461</v>
+        <v>7.6094609999999996</v>
       </c>
       <c r="M6" s="1">
-        <v>1306.350000</v>
+        <v>1306.3499999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-203.147000</v>
+        <v>-203.14699999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>27404.505311</v>
+        <v>27404.505311000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>7.612363</v>
+        <v>7.6123630000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>1318.380000</v>
+        <v>1318.38</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.993000</v>
+        <v>-184.99299999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>27414.772967</v>
+        <v>27414.772967000001</v>
       </c>
       <c r="V6" s="1">
-        <v>7.615215</v>
+        <v>7.6152150000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1331.580000</v>
+        <v>1331.58</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.178000</v>
+        <v>-171.178</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>27424.579898</v>
       </c>
       <c r="AA6" s="1">
-        <v>7.617939</v>
+        <v>7.6179389999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>1348.540000</v>
+        <v>1348.54</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.986000</v>
+        <v>-168.98599999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>27434.804893</v>
       </c>
       <c r="AF6" s="1">
-        <v>7.620779</v>
+        <v>7.6207789999999997</v>
       </c>
       <c r="AG6" s="1">
-        <v>1361.680000</v>
+        <v>1361.68</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.712000</v>
+        <v>-178.71199999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>27444.960518</v>
       </c>
       <c r="AK6" s="1">
-        <v>7.623600</v>
+        <v>7.6235999999999997</v>
       </c>
       <c r="AL6" s="1">
-        <v>1382.230000</v>
+        <v>1382.23</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.337000</v>
+        <v>-208.33699999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>27456.289632</v>
       </c>
       <c r="AP6" s="1">
-        <v>7.626747</v>
+        <v>7.6267469999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1403.720000</v>
+        <v>1403.72</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.171000</v>
+        <v>-252.17099999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>27466.958547</v>
+        <v>27466.958546999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>7.629711</v>
+        <v>7.6297110000000004</v>
       </c>
       <c r="AV6" s="1">
-        <v>1428.110000</v>
+        <v>1428.11</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.237000</v>
+        <v>-312.23700000000002</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>27478.053590</v>
+        <v>27478.05359</v>
       </c>
       <c r="AZ6" s="1">
-        <v>7.632793</v>
+        <v>7.6327930000000004</v>
       </c>
       <c r="BA6" s="1">
-        <v>1447.300000</v>
+        <v>1447.3</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.470000</v>
+        <v>-364.47</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>27489.023078</v>
+        <v>27489.023077999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>7.635840</v>
+        <v>7.63584</v>
       </c>
       <c r="BF6" s="1">
-        <v>1532.120000</v>
+        <v>1532.12</v>
       </c>
       <c r="BG6" s="1">
-        <v>-613.599000</v>
+        <v>-613.59900000000005</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>27500.123078</v>
+        <v>27500.123078000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>7.638923</v>
+        <v>7.6389230000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1686.220000</v>
+        <v>1686.22</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1060.650000</v>
+        <v>-1060.6500000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>27511.685298</v>
       </c>
       <c r="BO6" s="1">
-        <v>7.642135</v>
+        <v>7.6421349999999997</v>
       </c>
       <c r="BP6" s="1">
-        <v>1980.870000</v>
+        <v>1980.87</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1835.120000</v>
+        <v>-1835.12</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>27523.371529</v>
       </c>
       <c r="BT6" s="1">
-        <v>7.645381</v>
+        <v>7.6453810000000004</v>
       </c>
       <c r="BU6" s="1">
-        <v>2367.390000</v>
+        <v>2367.39</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2726.700000</v>
+        <v>-2726.7</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>27534.465545</v>
+        <v>27534.465544999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>7.648463</v>
+        <v>7.6484629999999996</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2850.200000</v>
+        <v>2850.2</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3706.980000</v>
+        <v>-3706.98</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>27545.851732</v>
+        <v>27545.851731999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>7.651625</v>
+        <v>7.6516250000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>4281.130000</v>
+        <v>4281.13</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6069.460000</v>
+        <v>-6069.46</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>27373.553934</v>
       </c>
       <c r="B7" s="1">
-        <v>7.603765</v>
+        <v>7.6037650000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1245.980000</v>
+        <v>1245.98</v>
       </c>
       <c r="D7" s="1">
-        <v>-308.194000</v>
+        <v>-308.19400000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>27383.918863</v>
+        <v>27383.918862999999</v>
       </c>
       <c r="G7" s="1">
-        <v>7.606644</v>
+        <v>7.6066440000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>1271.480000</v>
+        <v>1271.48</v>
       </c>
       <c r="I7" s="1">
-        <v>-266.568000</v>
+        <v>-266.56799999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>27394.328372</v>
       </c>
       <c r="L7" s="1">
-        <v>7.609536</v>
+        <v>7.6095360000000003</v>
       </c>
       <c r="M7" s="1">
-        <v>1306.500000</v>
+        <v>1306.5</v>
       </c>
       <c r="N7" s="1">
-        <v>-203.102000</v>
+        <v>-203.102</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>27404.850528</v>
+        <v>27404.850527999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.612458</v>
+        <v>7.6124580000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>1318.380000</v>
+        <v>1318.38</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.980000</v>
+        <v>-184.98</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>27415.116199</v>
       </c>
       <c r="V7" s="1">
-        <v>7.615310</v>
+        <v>7.61531</v>
       </c>
       <c r="W7" s="1">
-        <v>1331.530000</v>
+        <v>1331.53</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.207000</v>
+        <v>-171.20699999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>27424.927102</v>
+        <v>27424.927102000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>7.618035</v>
+        <v>7.6180349999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1348.720000</v>
+        <v>1348.72</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.173000</v>
+        <v>-169.173</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>27435.144188</v>
+        <v>27435.144187999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>7.620873</v>
+        <v>7.6208729999999996</v>
       </c>
       <c r="AG7" s="1">
-        <v>1361.670000</v>
+        <v>1361.67</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.762000</v>
+        <v>-178.762</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>27445.657360</v>
+        <v>27445.657360000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>7.623794</v>
+        <v>7.6237940000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>1382.240000</v>
+        <v>1382.24</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.283000</v>
+        <v>-208.28299999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>27456.649696</v>
       </c>
       <c r="AP7" s="1">
-        <v>7.626847</v>
+        <v>7.6268469999999997</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1403.730000</v>
+        <v>1403.73</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.152000</v>
+        <v>-252.15199999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>27467.352557</v>
+        <v>27467.352556999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>7.629820</v>
+        <v>7.6298199999999996</v>
       </c>
       <c r="AV7" s="1">
-        <v>1428.120000</v>
+        <v>1428.12</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.236000</v>
+        <v>-312.23599999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>27478.413652</v>
+        <v>27478.413651999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>7.632893</v>
+        <v>7.6328930000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1447.290000</v>
+        <v>1447.29</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.429000</v>
+        <v>-364.42899999999997</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>27489.704580</v>
+        <v>27489.704580000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>7.636029</v>
+        <v>7.6360289999999997</v>
       </c>
       <c r="BF7" s="1">
-        <v>1532.110000</v>
+        <v>1532.11</v>
       </c>
       <c r="BG7" s="1">
-        <v>-613.600000</v>
+        <v>-613.6</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>27500.834342</v>
+        <v>27500.834341999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>7.639121</v>
+        <v>7.6391210000000003</v>
       </c>
       <c r="BK7" s="1">
-        <v>1686.260000</v>
+        <v>1686.26</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1060.630000</v>
+        <v>-1060.6300000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>27511.797383</v>
+        <v>27511.797383000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>7.642166</v>
+        <v>7.6421659999999996</v>
       </c>
       <c r="BP7" s="1">
-        <v>1980.690000</v>
+        <v>1980.69</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1834.920000</v>
+        <v>-1834.92</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>27523.808999</v>
+        <v>27523.808999000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>7.645502</v>
+        <v>7.6455019999999996</v>
       </c>
       <c r="BU7" s="1">
-        <v>2367.610000</v>
+        <v>2367.61</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2726.520000</v>
+        <v>-2726.52</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>27534.879715</v>
+        <v>27534.879714999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>7.648578</v>
+        <v>7.6485779999999997</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2850.730000</v>
+        <v>2850.73</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3706.600000</v>
+        <v>-3706.6</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>27546.371513</v>
+        <v>27546.371512999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>7.651770</v>
+        <v>7.65177</v>
       </c>
       <c r="CE7" s="1">
-        <v>4255.180000</v>
+        <v>4255.18</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6065.900000</v>
+        <v>-6065.9</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>27373.814867</v>
+        <v>27373.814867000001</v>
       </c>
       <c r="B8" s="1">
-        <v>7.603837</v>
+        <v>7.6038370000000004</v>
       </c>
       <c r="C8" s="1">
-        <v>1246.130000</v>
+        <v>1246.1300000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-308.419000</v>
+        <v>-308.41899999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>27384.200096</v>
       </c>
       <c r="G8" s="1">
-        <v>7.606722</v>
+        <v>7.6067220000000004</v>
       </c>
       <c r="H8" s="1">
-        <v>1271.480000</v>
+        <v>1271.48</v>
       </c>
       <c r="I8" s="1">
-        <v>-265.884000</v>
+        <v>-265.88400000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>27394.675699</v>
+        <v>27394.675698999999</v>
       </c>
       <c r="L8" s="1">
-        <v>7.609632</v>
+        <v>7.6096320000000004</v>
       </c>
       <c r="M8" s="1">
-        <v>1306.690000</v>
+        <v>1306.69</v>
       </c>
       <c r="N8" s="1">
-        <v>-203.223000</v>
+        <v>-203.22300000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>27405.202165</v>
+        <v>27405.202164999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>7.612556</v>
+        <v>7.6125559999999997</v>
       </c>
       <c r="R8" s="1">
-        <v>1318.530000</v>
+        <v>1318.53</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.976000</v>
+        <v>-184.976</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>27415.457085</v>
+        <v>27415.457084999998</v>
       </c>
       <c r="V8" s="1">
         <v>7.615405</v>
       </c>
       <c r="W8" s="1">
-        <v>1331.590000</v>
+        <v>1331.59</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.281000</v>
+        <v>-171.28100000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>27425.623451</v>
+        <v>27425.623450999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>7.618229</v>
+        <v>7.6182290000000004</v>
       </c>
       <c r="AB8" s="1">
-        <v>1348.620000</v>
+        <v>1348.62</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.086000</v>
+        <v>-169.08600000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>27435.831611</v>
+        <v>27435.831611000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>7.621064</v>
+        <v>7.6210639999999996</v>
       </c>
       <c r="AG8" s="1">
-        <v>1361.660000</v>
+        <v>1361.66</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.708000</v>
+        <v>-178.708</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>27446.003566</v>
+        <v>27446.003565999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>7.623890</v>
+        <v>7.6238900000000003</v>
       </c>
       <c r="AL8" s="1">
-        <v>1382.260000</v>
+        <v>1382.26</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.273000</v>
+        <v>-208.273</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>27457.012767</v>
       </c>
       <c r="AP8" s="1">
-        <v>7.626948</v>
+        <v>7.6269479999999996</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1403.740000</v>
+        <v>1403.74</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.153000</v>
+        <v>-252.15299999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>27467.719266</v>
       </c>
       <c r="AU8" s="1">
-        <v>7.629922</v>
+        <v>7.6299219999999996</v>
       </c>
       <c r="AV8" s="1">
-        <v>1428.090000</v>
+        <v>1428.09</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.234000</v>
+        <v>-312.23399999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>27479.080770</v>
+        <v>27479.08077</v>
       </c>
       <c r="AZ8" s="1">
-        <v>7.633078</v>
+        <v>7.6330780000000003</v>
       </c>
       <c r="BA8" s="1">
-        <v>1447.320000</v>
+        <v>1447.32</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.463000</v>
+        <v>-364.46300000000002</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>27490.141059</v>
+        <v>27490.141059000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>7.636150</v>
+        <v>7.6361499999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1532.120000</v>
+        <v>1532.12</v>
       </c>
       <c r="BG8" s="1">
-        <v>-613.651000</v>
+        <v>-613.65099999999995</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>27501.252934</v>
       </c>
       <c r="BJ8" s="1">
-        <v>7.639237</v>
+        <v>7.6392369999999996</v>
       </c>
       <c r="BK8" s="1">
-        <v>1686.260000</v>
+        <v>1686.26</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1060.630000</v>
+        <v>-1060.6300000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>27512.187770</v>
+        <v>27512.18777</v>
       </c>
       <c r="BO8" s="1">
-        <v>7.642274</v>
+        <v>7.6422739999999996</v>
       </c>
       <c r="BP8" s="1">
-        <v>1980.790000</v>
+        <v>1980.79</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1835.030000</v>
+        <v>-1835.03</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>27524.219190</v>
+        <v>27524.21919</v>
       </c>
       <c r="BT8" s="1">
-        <v>7.645616</v>
+        <v>7.6456160000000004</v>
       </c>
       <c r="BU8" s="1">
-        <v>2368.030000</v>
+        <v>2368.0300000000002</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2726.860000</v>
+        <v>-2726.86</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>27535.311753</v>
+        <v>27535.311753000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>7.648698</v>
+        <v>7.6486980000000004</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2851.410000</v>
+        <v>2851.41</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3706.240000</v>
+        <v>-3706.24</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>27546.912153</v>
+        <v>27546.912153000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>7.651920</v>
+        <v>7.6519199999999996</v>
       </c>
       <c r="CE8" s="1">
-        <v>4272.790000</v>
+        <v>4272.79</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6075.850000</v>
+        <v>-6075.85</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>27374.159052</v>
+        <v>27374.159051999999</v>
       </c>
       <c r="B9" s="1">
-        <v>7.603933</v>
+        <v>7.6039329999999996</v>
       </c>
       <c r="C9" s="1">
-        <v>1246.140000</v>
+        <v>1246.1400000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-308.253000</v>
+        <v>-308.25299999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>27384.544287</v>
+        <v>27384.544287000001</v>
       </c>
       <c r="G9" s="1">
-        <v>7.606818</v>
+        <v>7.6068179999999996</v>
       </c>
       <c r="H9" s="1">
-        <v>1271.430000</v>
+        <v>1271.43</v>
       </c>
       <c r="I9" s="1">
-        <v>-266.268000</v>
+        <v>-266.26799999999997</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>27395.021313</v>
+        <v>27395.021313000001</v>
       </c>
       <c r="L9" s="1">
-        <v>7.609728</v>
+        <v>7.6097279999999996</v>
       </c>
       <c r="M9" s="1">
-        <v>1306.350000</v>
+        <v>1306.3499999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-203.192000</v>
+        <v>-203.19200000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>27405.898051</v>
@@ -2325,542 +2741,542 @@
         <v>7.612749</v>
       </c>
       <c r="R9" s="1">
-        <v>1318.410000</v>
+        <v>1318.41</v>
       </c>
       <c r="S9" s="1">
-        <v>-185.017000</v>
+        <v>-185.017</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>27416.144405</v>
+        <v>27416.144404999999</v>
       </c>
       <c r="V9" s="1">
         <v>7.615596</v>
       </c>
       <c r="W9" s="1">
-        <v>1331.590000</v>
+        <v>1331.59</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.245000</v>
+        <v>-171.245</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>27425.974616</v>
       </c>
       <c r="AA9" s="1">
-        <v>7.618326</v>
+        <v>7.6183259999999997</v>
       </c>
       <c r="AB9" s="1">
-        <v>1348.450000</v>
+        <v>1348.45</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.042000</v>
+        <v>-169.042</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>27436.173851</v>
       </c>
       <c r="AF9" s="1">
-        <v>7.621159</v>
+        <v>7.6211589999999996</v>
       </c>
       <c r="AG9" s="1">
-        <v>1361.620000</v>
+        <v>1361.62</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.719000</v>
+        <v>-178.71899999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>27446.355229</v>
+        <v>27446.355229000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>7.623988</v>
+        <v>7.6239879999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>1382.260000</v>
+        <v>1382.26</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.296000</v>
+        <v>-208.29599999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>27457.691334</v>
+        <v>27457.691333999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>7.627136</v>
+        <v>7.6271360000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1403.720000</v>
+        <v>1403.72</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.148000</v>
+        <v>-252.148</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>27468.398471</v>
       </c>
       <c r="AU9" s="1">
-        <v>7.630111</v>
+        <v>7.6301110000000003</v>
       </c>
       <c r="AV9" s="1">
-        <v>1428.100000</v>
+        <v>1428.1</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.230000</v>
+        <v>-312.23</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>27479.489969</v>
+        <v>27479.489968999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>7.633192</v>
+        <v>7.6331920000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1447.310000</v>
+        <v>1447.31</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.451000</v>
+        <v>-364.45100000000002</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>27490.505125</v>
       </c>
       <c r="BE9" s="1">
-        <v>7.636251</v>
+        <v>7.6362509999999997</v>
       </c>
       <c r="BF9" s="1">
-        <v>1532.130000</v>
+        <v>1532.13</v>
       </c>
       <c r="BG9" s="1">
-        <v>-613.628000</v>
+        <v>-613.62800000000004</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>27501.623942</v>
+        <v>27501.623941999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>7.639340</v>
+        <v>7.6393399999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1686.260000</v>
+        <v>1686.26</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1060.630000</v>
+        <v>-1060.6300000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>27512.613302</v>
+        <v>27512.613302000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>7.642393</v>
+        <v>7.6423930000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1980.710000</v>
+        <v>1980.71</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1835.080000</v>
+        <v>-1835.08</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>27524.649223</v>
       </c>
       <c r="BT9" s="1">
-        <v>7.645736</v>
+        <v>7.6457360000000003</v>
       </c>
       <c r="BU9" s="1">
-        <v>2368.030000</v>
+        <v>2368.0300000000002</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2726.240000</v>
+        <v>-2726.24</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>27535.740759</v>
       </c>
       <c r="BY9" s="1">
-        <v>7.648817</v>
+        <v>7.6488170000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2850.610000</v>
+        <v>2850.61</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3706.040000</v>
+        <v>-3706.04</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>27547.450809</v>
+        <v>27547.450809000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>7.652070</v>
+        <v>7.6520700000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>4271.860000</v>
+        <v>4271.8599999999997</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6057.510000</v>
+        <v>-6057.51</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>27374.499308</v>
+        <v>27374.499307999999</v>
       </c>
       <c r="B10" s="1">
-        <v>7.604028</v>
+        <v>7.6040279999999996</v>
       </c>
       <c r="C10" s="1">
-        <v>1246.210000</v>
+        <v>1246.21</v>
       </c>
       <c r="D10" s="1">
-        <v>-308.451000</v>
+        <v>-308.45100000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>27384.886527</v>
+        <v>27384.886526999999</v>
       </c>
       <c r="G10" s="1">
-        <v>7.606913</v>
+        <v>7.6069129999999996</v>
       </c>
       <c r="H10" s="1">
-        <v>1271.060000</v>
+        <v>1271.06</v>
       </c>
       <c r="I10" s="1">
-        <v>-266.527000</v>
+        <v>-266.52699999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>27395.718657</v>
+        <v>27395.718657000001</v>
       </c>
       <c r="L10" s="1">
-        <v>7.609922</v>
+        <v>7.6099220000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1306.620000</v>
+        <v>1306.6199999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-203.366000</v>
+        <v>-203.36600000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>27406.250210</v>
+        <v>27406.250209999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>7.612847</v>
+        <v>7.6128470000000004</v>
       </c>
       <c r="R10" s="1">
-        <v>1318.310000</v>
+        <v>1318.31</v>
       </c>
       <c r="S10" s="1">
-        <v>-185.028000</v>
+        <v>-185.02799999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>27416.488133</v>
+        <v>27416.488132999999</v>
       </c>
       <c r="V10" s="1">
         <v>7.615691</v>
       </c>
       <c r="W10" s="1">
-        <v>1331.470000</v>
+        <v>1331.47</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.258000</v>
+        <v>-171.25800000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>27426.324792</v>
+        <v>27426.324791999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>7.618424</v>
+        <v>7.6184240000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1348.810000</v>
+        <v>1348.81</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.072000</v>
+        <v>-169.072</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>27436.834040</v>
+        <v>27436.834040000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>7.621343</v>
+        <v>7.6213430000000004</v>
       </c>
       <c r="AG10" s="1">
-        <v>1361.610000</v>
+        <v>1361.61</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.663000</v>
+        <v>-178.66300000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>27447.017886</v>
+        <v>27447.017886000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>7.624172</v>
+        <v>7.6241719999999997</v>
       </c>
       <c r="AL10" s="1">
-        <v>1382.230000</v>
+        <v>1382.23</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.258000</v>
+        <v>-208.25800000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>27458.114382</v>
       </c>
       <c r="AP10" s="1">
-        <v>7.627254</v>
+        <v>7.6272539999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1403.740000</v>
+        <v>1403.74</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.167000</v>
+        <v>-252.167</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>27468.811105</v>
+        <v>27468.811105000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>7.630225</v>
+        <v>7.6302250000000003</v>
       </c>
       <c r="AV10" s="1">
-        <v>1428.110000</v>
+        <v>1428.11</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.210000</v>
+        <v>-312.20999999999998</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>27479.875857</v>
+        <v>27479.875856999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>7.633299</v>
+        <v>7.6332990000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1447.310000</v>
+        <v>1447.31</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.426000</v>
+        <v>-364.42599999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>27490.866211</v>
       </c>
       <c r="BE10" s="1">
-        <v>7.636352</v>
+        <v>7.6363519999999996</v>
       </c>
       <c r="BF10" s="1">
-        <v>1532.110000</v>
+        <v>1532.11</v>
       </c>
       <c r="BG10" s="1">
-        <v>-613.629000</v>
+        <v>-613.62900000000002</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>27502.172020</v>
+        <v>27502.172020000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>7.639492</v>
+        <v>7.6394919999999997</v>
       </c>
       <c r="BK10" s="1">
-        <v>1686.230000</v>
+        <v>1686.23</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1060.650000</v>
+        <v>-1060.6500000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>27513.045813</v>
+        <v>27513.045813000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>7.642513</v>
+        <v>7.6425130000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1980.850000</v>
+        <v>1980.85</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1834.980000</v>
+        <v>-1834.98</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>27525.080589</v>
+        <v>27525.080589000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>7.645856</v>
+        <v>7.6458560000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>2368.220000</v>
+        <v>2368.2199999999998</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2726.620000</v>
+        <v>-2726.62</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>27536.164839</v>
+        <v>27536.164839000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>7.648935</v>
+        <v>7.6489349999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2850.530000</v>
+        <v>2850.53</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3707.030000</v>
+        <v>-3707.03</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>27547.990492</v>
+        <v>27547.990492000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>7.652220</v>
+        <v>7.6522199999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>4258.430000</v>
+        <v>4258.43</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6074.540000</v>
+        <v>-6074.54</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>27375.179323</v>
       </c>
       <c r="B11" s="1">
-        <v>7.604216</v>
+        <v>7.6042160000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1245.920000</v>
+        <v>1245.92</v>
       </c>
       <c r="D11" s="1">
-        <v>-308.231000</v>
+        <v>-308.23099999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>27385.577488</v>
+        <v>27385.577487999999</v>
       </c>
       <c r="G11" s="1">
-        <v>7.607105</v>
+        <v>7.6071049999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1270.740000</v>
+        <v>1270.74</v>
       </c>
       <c r="I11" s="1">
-        <v>-265.257000</v>
+        <v>-265.25700000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>27396.067343</v>
+        <v>27396.067342999999</v>
       </c>
       <c r="L11" s="1">
-        <v>7.610019</v>
+        <v>7.6100190000000003</v>
       </c>
       <c r="M11" s="1">
-        <v>1306.960000</v>
+        <v>1306.96</v>
       </c>
       <c r="N11" s="1">
-        <v>-203.230000</v>
+        <v>-203.23</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>27406.598899</v>
+        <v>27406.598899000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>7.612944</v>
+        <v>7.6129439999999997</v>
       </c>
       <c r="R11" s="1">
-        <v>1318.300000</v>
+        <v>1318.3</v>
       </c>
       <c r="S11" s="1">
-        <v>-185.069000</v>
+        <v>-185.06899999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>27416.831365</v>
+        <v>27416.831364999998</v>
       </c>
       <c r="V11" s="1">
-        <v>7.615786</v>
+        <v>7.6157859999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1331.690000</v>
+        <v>1331.69</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.154000</v>
+        <v>-171.154</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>27426.987976</v>
@@ -2869,1994 +3285,1994 @@
         <v>7.618608</v>
       </c>
       <c r="AB11" s="1">
-        <v>1348.720000</v>
+        <v>1348.72</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.123000</v>
+        <v>-169.12299999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>27437.210986</v>
+        <v>27437.210985999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>7.621447</v>
+        <v>7.6214469999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1361.610000</v>
+        <v>1361.61</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.703000</v>
+        <v>-178.703</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>27447.398350</v>
+        <v>27447.398349999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>7.624277</v>
+        <v>7.6242770000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>1382.220000</v>
+        <v>1382.22</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.287000</v>
+        <v>-208.28700000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>27458.476958</v>
+        <v>27458.476957999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>7.627355</v>
+        <v>7.6273549999999997</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1403.730000</v>
+        <v>1403.73</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.162000</v>
+        <v>-252.16200000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>27469.195538</v>
       </c>
       <c r="AU11" s="1">
-        <v>7.630332</v>
+        <v>7.6303320000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1428.100000</v>
+        <v>1428.1</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.258000</v>
+        <v>-312.25799999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>27480.233987</v>
       </c>
       <c r="AZ11" s="1">
-        <v>7.633398</v>
+        <v>7.6333979999999997</v>
       </c>
       <c r="BA11" s="1">
-        <v>1447.290000</v>
+        <v>1447.29</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.456000</v>
+        <v>-364.45600000000002</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>27491.300210</v>
+        <v>27491.300210000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>7.636472</v>
+        <v>7.6364720000000004</v>
       </c>
       <c r="BF11" s="1">
-        <v>1532.070000</v>
+        <v>1532.07</v>
       </c>
       <c r="BG11" s="1">
-        <v>-613.607000</v>
+        <v>-613.60699999999997</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>27502.372403</v>
+        <v>27502.372403000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>7.639548</v>
+        <v>7.6395479999999996</v>
       </c>
       <c r="BK11" s="1">
-        <v>1686.240000</v>
+        <v>1686.24</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1060.670000</v>
+        <v>-1060.67</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>27513.435700</v>
+        <v>27513.435700000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>7.642621</v>
+        <v>7.6426210000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1980.740000</v>
+        <v>1980.74</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1834.950000</v>
+        <v>-1834.95</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>27525.492421</v>
+        <v>27525.492420999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>7.645970</v>
+        <v>7.6459700000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>2368.470000</v>
+        <v>2368.4699999999998</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2726.710000</v>
+        <v>-2726.71</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>27536.587463</v>
       </c>
       <c r="BY11" s="1">
-        <v>7.649052</v>
+        <v>7.6490520000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2850.360000</v>
+        <v>2850.36</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3706.990000</v>
+        <v>-3706.99</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>27548.531590</v>
+        <v>27548.531589999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>7.652370</v>
+        <v>7.6523700000000003</v>
       </c>
       <c r="CE11" s="1">
-        <v>4279.950000</v>
+        <v>4279.95</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6067.810000</v>
+        <v>-6067.81</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>27375.523579</v>
+        <v>27375.523579000001</v>
       </c>
       <c r="B12" s="1">
-        <v>7.604312</v>
+        <v>7.6043120000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>1246.110000</v>
+        <v>1246.1099999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-308.243000</v>
+        <v>-308.24299999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>27385.923166</v>
       </c>
       <c r="G12" s="1">
-        <v>7.607201</v>
+        <v>7.6072009999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1270.620000</v>
+        <v>1270.6199999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-265.965000</v>
+        <v>-265.96499999999997</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>27396.413552</v>
+        <v>27396.413552000002</v>
       </c>
       <c r="L12" s="1">
-        <v>7.610115</v>
+        <v>7.6101150000000004</v>
       </c>
       <c r="M12" s="1">
-        <v>1306.420000</v>
+        <v>1306.42</v>
       </c>
       <c r="N12" s="1">
-        <v>-203.465000</v>
+        <v>-203.465</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>27407.258614</v>
+        <v>27407.258613999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>7.613127</v>
+        <v>7.6131270000000004</v>
       </c>
       <c r="R12" s="1">
-        <v>1318.400000</v>
+        <v>1318.4</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.951000</v>
+        <v>-184.95099999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>27417.490347</v>
+        <v>27417.490346999999</v>
       </c>
       <c r="V12" s="1">
-        <v>7.615970</v>
+        <v>7.6159699999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1331.540000</v>
+        <v>1331.54</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.203000</v>
+        <v>-171.203</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>27427.365896</v>
+        <v>27427.365895999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>7.618713</v>
+        <v>7.6187129999999996</v>
       </c>
       <c r="AB12" s="1">
-        <v>1348.820000</v>
+        <v>1348.82</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.268000</v>
+        <v>-169.268</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>27437.555705</v>
+        <v>27437.555704999999</v>
       </c>
       <c r="AF12" s="1">
         <v>7.621543</v>
       </c>
       <c r="AG12" s="1">
-        <v>1361.650000</v>
+        <v>1361.65</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.709000</v>
+        <v>-178.709</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>27447.747539</v>
       </c>
       <c r="AK12" s="1">
-        <v>7.624374</v>
+        <v>7.6243740000000004</v>
       </c>
       <c r="AL12" s="1">
-        <v>1382.260000</v>
+        <v>1382.26</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.271000</v>
+        <v>-208.27099999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>27458.835588</v>
+        <v>27458.835588000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>7.627454</v>
+        <v>7.6274540000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1403.760000</v>
+        <v>1403.76</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.162000</v>
+        <v>-252.16200000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>27469.626030</v>
+        <v>27469.626029999999</v>
       </c>
       <c r="AU12" s="1">
         <v>7.630452</v>
       </c>
       <c r="AV12" s="1">
-        <v>1428.100000</v>
+        <v>1428.1</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.223000</v>
+        <v>-312.22300000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>27480.658545</v>
+        <v>27480.658544999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>7.633516</v>
+        <v>7.6335160000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1447.300000</v>
+        <v>1447.3</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.471000</v>
+        <v>-364.471</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>27491.584914</v>
+        <v>27491.584913999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>7.636551</v>
+        <v>7.6365509999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1532.110000</v>
+        <v>1532.11</v>
       </c>
       <c r="BG12" s="1">
-        <v>-613.623000</v>
+        <v>-613.62300000000005</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>27502.758789</v>
       </c>
       <c r="BJ12" s="1">
-        <v>7.639655</v>
+        <v>7.6396550000000003</v>
       </c>
       <c r="BK12" s="1">
-        <v>1686.300000</v>
+        <v>1686.3</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1060.660000</v>
+        <v>-1060.6600000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>27513.831633</v>
+        <v>27513.831633000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>7.642731</v>
+        <v>7.6427310000000004</v>
       </c>
       <c r="BP12" s="1">
-        <v>1980.600000</v>
+        <v>1980.6</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1834.960000</v>
+        <v>-1834.96</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>27525.921956</v>
+        <v>27525.921955999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>7.646089</v>
+        <v>7.6460889999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>2368.810000</v>
+        <v>2368.81</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2726.990000</v>
+        <v>-2726.99</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>27537.037302</v>
+        <v>27537.037302000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>7.649177</v>
+        <v>7.6491769999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2850.300000</v>
+        <v>2850.3</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3706.110000</v>
+        <v>-3706.11</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>27549.069781</v>
+        <v>27549.069780999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>7.652519</v>
+        <v>7.6525189999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>4257.300000</v>
+        <v>4257.3</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6061.240000</v>
+        <v>-6061.24</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>27375.864336</v>
+        <v>27375.864335999999</v>
       </c>
       <c r="B13" s="1">
-        <v>7.604407</v>
+        <v>7.6044070000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1245.980000</v>
+        <v>1245.98</v>
       </c>
       <c r="D13" s="1">
-        <v>-308.456000</v>
+        <v>-308.45600000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>27386.278301</v>
+        <v>27386.278300999998</v>
       </c>
       <c r="G13" s="1">
-        <v>7.607300</v>
+        <v>7.6073000000000004</v>
       </c>
       <c r="H13" s="1">
-        <v>1270.290000</v>
+        <v>1270.29</v>
       </c>
       <c r="I13" s="1">
-        <v>-266.505000</v>
+        <v>-266.505</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>27397.070289</v>
+        <v>27397.070288999999</v>
       </c>
       <c r="L13" s="1">
-        <v>7.610297</v>
+        <v>7.6102970000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1306.350000</v>
+        <v>1306.3499999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-203.326000</v>
+        <v>-203.32599999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>27407.643969</v>
+        <v>27407.643969000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>7.613234</v>
+        <v>7.6132340000000003</v>
       </c>
       <c r="R13" s="1">
-        <v>1318.480000</v>
+        <v>1318.48</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.969000</v>
+        <v>-184.96899999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>27417.861093</v>
       </c>
       <c r="V13" s="1">
-        <v>7.616073</v>
+        <v>7.6160730000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1331.600000</v>
+        <v>1331.6</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.214000</v>
+        <v>-171.214</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>27427.717099</v>
+        <v>27427.717099000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>7.618810</v>
+        <v>7.6188099999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1348.660000</v>
+        <v>1348.66</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.208000</v>
+        <v>-169.208</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>27437.898968</v>
+        <v>27437.898968000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>7.621639</v>
+        <v>7.6216390000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1361.670000</v>
+        <v>1361.67</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.708000</v>
+        <v>-178.708</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>27448.095195</v>
+        <v>27448.095195000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>7.624471</v>
+        <v>7.6244709999999998</v>
       </c>
       <c r="AL13" s="1">
-        <v>1382.280000</v>
+        <v>1382.28</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.310000</v>
+        <v>-208.31</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>27459.267614</v>
       </c>
       <c r="AP13" s="1">
-        <v>7.627574</v>
+        <v>7.6275740000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1403.740000</v>
+        <v>1403.74</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.139000</v>
+        <v>-252.13900000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>27469.927631</v>
+        <v>27469.927630999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>7.630535</v>
+        <v>7.6305350000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1428.130000</v>
+        <v>1428.13</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.223000</v>
+        <v>-312.22300000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>27480.951242</v>
+        <v>27480.951241999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>7.633598</v>
+        <v>7.6335980000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1447.290000</v>
+        <v>1447.29</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.463000</v>
+        <v>-364.46300000000002</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>27491.945009</v>
+        <v>27491.945008999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>7.636651</v>
+        <v>7.6366509999999996</v>
       </c>
       <c r="BF13" s="1">
-        <v>1532.070000</v>
+        <v>1532.07</v>
       </c>
       <c r="BG13" s="1">
-        <v>-613.628000</v>
+        <v>-613.62800000000004</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>27503.148652</v>
       </c>
       <c r="BJ13" s="1">
-        <v>7.639764</v>
+        <v>7.6397640000000004</v>
       </c>
       <c r="BK13" s="1">
-        <v>1686.240000</v>
+        <v>1686.24</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1060.620000</v>
+        <v>-1060.6199999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>27514.253600</v>
+        <v>27514.2536</v>
       </c>
       <c r="BO13" s="1">
-        <v>7.642848</v>
+        <v>7.6428479999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1980.640000</v>
+        <v>1980.64</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1834.820000</v>
+        <v>-1834.82</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>27526.351492</v>
+        <v>27526.351492000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>7.646209</v>
+        <v>7.6462089999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>2369.160000</v>
+        <v>2369.16</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2726.650000</v>
+        <v>-2726.65</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>27537.468822</v>
+        <v>27537.468821999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>7.649297</v>
+        <v>7.6492969999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2849.820000</v>
+        <v>2849.82</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3706.370000</v>
+        <v>-3706.37</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>27549.613861</v>
+        <v>27549.613861000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>7.652671</v>
+        <v>7.6526709999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>4268.400000</v>
+        <v>4268.3999999999996</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6076.130000</v>
+        <v>-6076.13</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>27376.529930</v>
+        <v>27376.529930000001</v>
       </c>
       <c r="B14" s="1">
-        <v>7.604592</v>
+        <v>7.6045920000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>1245.790000</v>
+        <v>1245.79</v>
       </c>
       <c r="D14" s="1">
-        <v>-308.387000</v>
+        <v>-308.387</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>27386.935500</v>
+        <v>27386.9355</v>
       </c>
       <c r="G14" s="1">
-        <v>7.607482</v>
+        <v>7.6074820000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1271.710000</v>
+        <v>1271.71</v>
       </c>
       <c r="I14" s="1">
-        <v>-265.676000</v>
+        <v>-265.67599999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>27397.450190</v>
+        <v>27397.45019</v>
       </c>
       <c r="L14" s="1">
-        <v>7.610403</v>
+        <v>7.6104029999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>1306.700000</v>
+        <v>1306.7</v>
       </c>
       <c r="N14" s="1">
-        <v>-203.162000</v>
+        <v>-203.16200000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>27407.993152</v>
+        <v>27407.993151999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>7.613331</v>
+        <v>7.6133309999999996</v>
       </c>
       <c r="R14" s="1">
-        <v>1318.490000</v>
+        <v>1318.49</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.988000</v>
+        <v>-184.988</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>27418.206897</v>
       </c>
       <c r="V14" s="1">
-        <v>7.616169</v>
+        <v>7.6161690000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>1331.470000</v>
+        <v>1331.47</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.340000</v>
+        <v>-171.34</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>27428.066280</v>
+        <v>27428.066279999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>7.618907</v>
+        <v>7.6189070000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1348.720000</v>
+        <v>1348.72</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.082000</v>
+        <v>-169.08199999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>27438.324504</v>
       </c>
       <c r="AF14" s="1">
-        <v>7.621757</v>
+        <v>7.6217569999999997</v>
       </c>
       <c r="AG14" s="1">
-        <v>1361.660000</v>
+        <v>1361.66</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.680000</v>
+        <v>-178.68</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>27448.523776</v>
+        <v>27448.523776000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>7.624590</v>
+        <v>7.6245900000000004</v>
       </c>
       <c r="AL14" s="1">
-        <v>1382.280000</v>
+        <v>1382.28</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.276000</v>
+        <v>-208.27600000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>27459.556748</v>
+        <v>27459.556747999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>7.627655</v>
+        <v>7.6276549999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1403.790000</v>
+        <v>1403.79</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.171000</v>
+        <v>-252.17099999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>27470.289710</v>
+        <v>27470.289710000001</v>
       </c>
       <c r="AU14" s="1">
         <v>7.630636</v>
       </c>
       <c r="AV14" s="1">
-        <v>1428.140000</v>
+        <v>1428.14</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.202000</v>
+        <v>-312.202</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>27481.305360</v>
+        <v>27481.305359999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>7.633696</v>
+        <v>7.6336959999999996</v>
       </c>
       <c r="BA14" s="1">
-        <v>1447.330000</v>
+        <v>1447.33</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.451000</v>
+        <v>-364.45100000000002</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>27492.309074</v>
+        <v>27492.309074000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>7.636753</v>
+        <v>7.6367529999999997</v>
       </c>
       <c r="BF14" s="1">
-        <v>1532.090000</v>
+        <v>1532.09</v>
       </c>
       <c r="BG14" s="1">
-        <v>-613.610000</v>
+        <v>-613.61</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>27503.898595</v>
+        <v>27503.898594999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>7.639972</v>
+        <v>7.6399720000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1686.250000</v>
+        <v>1686.25</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1060.570000</v>
+        <v>-1060.57</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>27515.069986</v>
+        <v>27515.069985999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>7.643075</v>
+        <v>7.6430749999999996</v>
       </c>
       <c r="BP14" s="1">
-        <v>1980.790000</v>
+        <v>1980.79</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1834.940000</v>
+        <v>-1834.94</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>27526.765186</v>
+        <v>27526.765186000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>7.646324</v>
+        <v>7.6463239999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2369.300000</v>
+        <v>2369.3000000000002</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2726.730000</v>
+        <v>-2726.73</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>27537.887941</v>
+        <v>27537.887941000001</v>
       </c>
       <c r="BY14" s="1">
         <v>7.649413</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2849.650000</v>
+        <v>2849.65</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3706.870000</v>
+        <v>-3706.87</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>27550.156032</v>
+        <v>27550.156031999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>7.652821</v>
+        <v>7.6528210000000003</v>
       </c>
       <c r="CE14" s="1">
-        <v>4275.330000</v>
+        <v>4275.33</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6059.130000</v>
+        <v>-6059.13</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>27376.890025</v>
+        <v>27376.890025000001</v>
       </c>
       <c r="B15" s="1">
         <v>7.604692</v>
       </c>
       <c r="C15" s="1">
-        <v>1246.350000</v>
+        <v>1246.3499999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-308.022000</v>
+        <v>-308.02199999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>27387.305019</v>
+        <v>27387.305018999999</v>
       </c>
       <c r="G15" s="1">
-        <v>7.607585</v>
+        <v>7.6075850000000003</v>
       </c>
       <c r="H15" s="1">
-        <v>1270.900000</v>
+        <v>1270.9000000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-266.061000</v>
+        <v>-266.06099999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>27397.793917</v>
+        <v>27397.793916999999</v>
       </c>
       <c r="L15" s="1">
-        <v>7.610498</v>
+        <v>7.6104979999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>1307.070000</v>
+        <v>1307.07</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.000000</v>
+        <v>-203</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>27408.342832</v>
+        <v>27408.342831999998</v>
       </c>
       <c r="Q15" s="1">
         <v>7.613429</v>
       </c>
       <c r="R15" s="1">
-        <v>1318.510000</v>
+        <v>1318.51</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.906000</v>
+        <v>-184.90600000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>27418.555458</v>
+        <v>27418.555457999999</v>
       </c>
       <c r="V15" s="1">
-        <v>7.616265</v>
+        <v>7.6162650000000003</v>
       </c>
       <c r="W15" s="1">
-        <v>1331.600000</v>
+        <v>1331.6</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.266000</v>
+        <v>-171.26599999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>27428.498261</v>
+        <v>27428.498261000001</v>
       </c>
       <c r="AA15" s="1">
         <v>7.619027</v>
       </c>
       <c r="AB15" s="1">
-        <v>1348.690000</v>
+        <v>1348.69</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.375000</v>
+        <v>-169.375</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>27438.596312</v>
+        <v>27438.596312000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>7.621832</v>
+        <v>7.6218320000000004</v>
       </c>
       <c r="AG15" s="1">
-        <v>1361.640000</v>
+        <v>1361.64</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.657000</v>
+        <v>-178.65700000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>27448.804474</v>
       </c>
       <c r="AK15" s="1">
-        <v>7.624668</v>
+        <v>7.6246679999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>1382.300000</v>
+        <v>1382.3</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.286000</v>
+        <v>-208.286</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>27459.913404</v>
+        <v>27459.913403999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>7.627754</v>
+        <v>7.6277540000000004</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1403.740000</v>
+        <v>1403.74</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.139000</v>
+        <v>-252.13900000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>27470.655758</v>
+        <v>27470.655758000001</v>
       </c>
       <c r="AU15" s="1">
         <v>7.630738</v>
       </c>
       <c r="AV15" s="1">
-        <v>1428.100000</v>
+        <v>1428.1</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.201000</v>
+        <v>-312.20100000000002</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>27481.671375</v>
+        <v>27481.671375000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>7.633798</v>
+        <v>7.6337979999999996</v>
       </c>
       <c r="BA15" s="1">
-        <v>1447.320000</v>
+        <v>1447.32</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.460000</v>
+        <v>-364.46</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>27493.031248</v>
+        <v>27493.031247999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>7.636953</v>
+        <v>7.6369530000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1532.090000</v>
+        <v>1532.09</v>
       </c>
       <c r="BG15" s="1">
-        <v>-613.611000</v>
+        <v>-613.61099999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>27504.301879</v>
+        <v>27504.301878999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>7.640084</v>
+        <v>7.6400839999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1686.270000</v>
+        <v>1686.27</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1060.620000</v>
+        <v>-1060.6199999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>27515.488145</v>
+        <v>27515.488144999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>7.643191</v>
+        <v>7.6431909999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1980.660000</v>
+        <v>1980.66</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1835.030000</v>
+        <v>-1835.03</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>27527.194196</v>
       </c>
       <c r="BT15" s="1">
-        <v>7.646443</v>
+        <v>7.6464429999999997</v>
       </c>
       <c r="BU15" s="1">
-        <v>2369.410000</v>
+        <v>2369.41</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2727.020000</v>
+        <v>-2727.02</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>27538.618053</v>
+        <v>27538.618052999998</v>
       </c>
       <c r="BY15" s="1">
         <v>7.649616</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2850.460000</v>
+        <v>2850.46</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3706.590000</v>
+        <v>-3706.59</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>27550.850883</v>
+        <v>27550.850882999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>7.653014</v>
+        <v>7.6530139999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>4271.170000</v>
+        <v>4271.17</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6079.600000</v>
+        <v>-6079.6</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>27377.234746</v>
+        <v>27377.234745999998</v>
       </c>
       <c r="B16" s="1">
         <v>7.604787</v>
       </c>
       <c r="C16" s="1">
-        <v>1246.110000</v>
+        <v>1246.1099999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-308.160000</v>
+        <v>-308.16000000000003</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>27387.653708</v>
+        <v>27387.653708000002</v>
       </c>
       <c r="G16" s="1">
-        <v>7.607682</v>
+        <v>7.6076819999999996</v>
       </c>
       <c r="H16" s="1">
-        <v>1269.760000</v>
+        <v>1269.76</v>
       </c>
       <c r="I16" s="1">
-        <v>-265.637000</v>
+        <v>-265.637</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>27398.142620</v>
+        <v>27398.142619999999</v>
       </c>
       <c r="L16" s="1">
         <v>7.610595</v>
       </c>
       <c r="M16" s="1">
-        <v>1306.970000</v>
+        <v>1306.97</v>
       </c>
       <c r="N16" s="1">
-        <v>-203.355000</v>
+        <v>-203.35499999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>27408.768400</v>
+        <v>27408.768400000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>7.613547</v>
+        <v>7.6135469999999996</v>
       </c>
       <c r="R16" s="1">
-        <v>1318.380000</v>
+        <v>1318.38</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.963000</v>
+        <v>-184.96299999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>27418.985987</v>
       </c>
       <c r="V16" s="1">
-        <v>7.616385</v>
+        <v>7.6163850000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>1331.620000</v>
+        <v>1331.62</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.281000</v>
+        <v>-171.28100000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>27428.773542</v>
+        <v>27428.773541999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>7.619104</v>
+        <v>7.6191040000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1348.740000</v>
+        <v>1348.74</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.098000</v>
+        <v>-169.09800000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>27438.941031</v>
+        <v>27438.941030999998</v>
       </c>
       <c r="AF16" s="1">
-        <v>7.621928</v>
+        <v>7.6219279999999996</v>
       </c>
       <c r="AG16" s="1">
-        <v>1361.630000</v>
+        <v>1361.63</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.669000</v>
+        <v>-178.66900000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>27449.154006</v>
+        <v>27449.154006000001</v>
       </c>
       <c r="AK16" s="1">
         <v>7.624765</v>
       </c>
       <c r="AL16" s="1">
-        <v>1382.260000</v>
+        <v>1382.26</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.284000</v>
+        <v>-208.28399999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>27460.277931</v>
+        <v>27460.277931000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>7.627855</v>
+        <v>7.6278550000000003</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1403.760000</v>
+        <v>1403.76</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.128000</v>
+        <v>-252.12799999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>27471.392812</v>
+        <v>27471.392811999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>7.630942</v>
+        <v>7.6309420000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1428.120000</v>
+        <v>1428.12</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.207000</v>
+        <v>-312.20699999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>27482.382639</v>
+        <v>27482.382638999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>7.633995</v>
+        <v>7.6339949999999996</v>
       </c>
       <c r="BA16" s="1">
-        <v>1447.270000</v>
+        <v>1447.27</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.421000</v>
+        <v>-364.42099999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>27493.416869</v>
+        <v>27493.416869000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>7.637060</v>
+        <v>7.63706</v>
       </c>
       <c r="BF16" s="1">
-        <v>1532.080000</v>
+        <v>1532.08</v>
       </c>
       <c r="BG16" s="1">
-        <v>-613.616000</v>
+        <v>-613.61599999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>27504.678306</v>
+        <v>27504.678306000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>7.640188</v>
+        <v>7.6401880000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1686.190000</v>
+        <v>1686.19</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1060.590000</v>
+        <v>-1060.5899999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>27515.883425</v>
       </c>
       <c r="BO16" s="1">
-        <v>7.643301</v>
+        <v>7.6433010000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1980.570000</v>
+        <v>1980.57</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1834.860000</v>
+        <v>-1834.86</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>27527.944145</v>
+        <v>27527.944145000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>7.646651</v>
+        <v>7.6466510000000003</v>
       </c>
       <c r="BU16" s="1">
-        <v>2369.570000</v>
+        <v>2369.5700000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2727.630000</v>
+        <v>-2727.63</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>27538.781733</v>
       </c>
       <c r="BY16" s="1">
-        <v>7.649662</v>
+        <v>7.6496620000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2849.910000</v>
+        <v>2849.91</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3706.360000</v>
+        <v>-3706.36</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>27551.227843</v>
+        <v>27551.227843000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>7.653119</v>
+        <v>7.6531190000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>4274.520000</v>
+        <v>4274.5200000000004</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6077.050000</v>
+        <v>-6077.05</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>27377.575498</v>
+        <v>27377.575497999998</v>
       </c>
       <c r="B17" s="1">
-        <v>7.604882</v>
+        <v>7.6048819999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1246.130000</v>
+        <v>1246.1300000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-308.152000</v>
+        <v>-308.15199999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>27388.084730</v>
+        <v>27388.084729999999</v>
       </c>
       <c r="G17" s="1">
-        <v>7.607801</v>
+        <v>7.6078010000000003</v>
       </c>
       <c r="H17" s="1">
-        <v>1271.330000</v>
+        <v>1271.33</v>
       </c>
       <c r="I17" s="1">
-        <v>-265.529000</v>
+        <v>-265.529</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>27398.567678</v>
+        <v>27398.567677999999</v>
       </c>
       <c r="L17" s="1">
-        <v>7.610713</v>
+        <v>7.6107129999999996</v>
       </c>
       <c r="M17" s="1">
-        <v>1306.640000</v>
+        <v>1306.6400000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-203.376000</v>
+        <v>-203.376</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>27409.036735</v>
+        <v>27409.036735000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>7.613621</v>
+        <v>7.6136210000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>1318.370000</v>
+        <v>1318.37</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.986000</v>
+        <v>-184.98599999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>27419.259778</v>
       </c>
       <c r="V17" s="1">
-        <v>7.616461</v>
+        <v>7.6164610000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1331.730000</v>
+        <v>1331.73</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.335000</v>
+        <v>-171.33500000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>27429.122725</v>
+        <v>27429.122725000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>7.619201</v>
+        <v>7.6192010000000003</v>
       </c>
       <c r="AB17" s="1">
-        <v>1348.630000</v>
+        <v>1348.63</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.153000</v>
+        <v>-169.15299999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>27439.286247</v>
       </c>
       <c r="AF17" s="1">
-        <v>7.622024</v>
+        <v>7.6220239999999997</v>
       </c>
       <c r="AG17" s="1">
-        <v>1361.670000</v>
+        <v>1361.67</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.555000</v>
+        <v>-178.55500000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>27449.501849</v>
       </c>
       <c r="AK17" s="1">
-        <v>7.624862</v>
+        <v>7.6248620000000003</v>
       </c>
       <c r="AL17" s="1">
-        <v>1382.250000</v>
+        <v>1382.25</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.287000</v>
+        <v>-208.28700000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>27460.996667</v>
+        <v>27460.996666999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>7.628055</v>
+        <v>7.6280549999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1403.700000</v>
+        <v>1403.7</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.146000</v>
+        <v>-252.14599999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>27471.774236</v>
+        <v>27471.774236000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>7.631048</v>
+        <v>7.6310479999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>1428.120000</v>
+        <v>1428.12</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.212000</v>
+        <v>-312.21199999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>27482.742239</v>
+        <v>27482.742238999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>7.634095</v>
+        <v>7.6340950000000003</v>
       </c>
       <c r="BA17" s="1">
-        <v>1447.270000</v>
+        <v>1447.27</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.484000</v>
+        <v>-364.48399999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>27493.778223</v>
+        <v>27493.778223000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>7.637161</v>
+        <v>7.6371609999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1532.040000</v>
+        <v>1532.04</v>
       </c>
       <c r="BG17" s="1">
-        <v>-613.611000</v>
+        <v>-613.61099999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>27505.365619</v>
       </c>
       <c r="BJ17" s="1">
-        <v>7.640379</v>
+        <v>7.6403790000000003</v>
       </c>
       <c r="BK17" s="1">
-        <v>1686.240000</v>
+        <v>1686.24</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1060.490000</v>
+        <v>-1060.49</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>27516.617505</v>
+        <v>27516.617504999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>7.643505</v>
+        <v>7.6435050000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1980.720000</v>
+        <v>1980.72</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1834.930000</v>
+        <v>-1834.93</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>27528.071650</v>
+        <v>27528.071650000002</v>
       </c>
       <c r="BT17" s="1">
         <v>7.646687</v>
       </c>
       <c r="BU17" s="1">
-        <v>2369.910000</v>
+        <v>2369.91</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2727.520000</v>
+        <v>-2727.52</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>27539.205812</v>
       </c>
       <c r="BY17" s="1">
-        <v>7.649779</v>
+        <v>7.6497789999999997</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2849.970000</v>
+        <v>2849.97</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3705.830000</v>
+        <v>-3705.83</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>27551.747650</v>
+        <v>27551.747650000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>7.653263</v>
+        <v>7.6532629999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4275.580000</v>
+        <v>4275.58</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6061.570000</v>
+        <v>-6061.57</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>27378.013500</v>
+        <v>27378.013500000001</v>
       </c>
       <c r="B18" s="1">
-        <v>7.605004</v>
+        <v>7.6050040000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1246.170000</v>
+        <v>1246.17</v>
       </c>
       <c r="D18" s="1">
-        <v>-308.370000</v>
+        <v>-308.37</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>27388.350586</v>
       </c>
       <c r="G18" s="1">
-        <v>7.607875</v>
+        <v>7.6078749999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1270.630000</v>
+        <v>1270.6300000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-265.676000</v>
+        <v>-265.67599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>27398.846428</v>
+        <v>27398.846428000001</v>
       </c>
       <c r="L18" s="1">
-        <v>7.610791</v>
+        <v>7.6107909999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1306.180000</v>
+        <v>1306.18</v>
       </c>
       <c r="N18" s="1">
-        <v>-203.542000</v>
+        <v>-203.542</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>27409.398846</v>
       </c>
       <c r="Q18" s="1">
-        <v>7.613722</v>
+        <v>7.6137220000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1318.500000</v>
+        <v>1318.5</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.923000</v>
+        <v>-184.923</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>27419.602016</v>
+        <v>27419.602016000001</v>
       </c>
       <c r="V18" s="1">
-        <v>7.616556</v>
+        <v>7.6165560000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1331.600000</v>
+        <v>1331.6</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.300000</v>
+        <v>-171.3</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>27429.473395</v>
+        <v>27429.473395000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>7.619298</v>
+        <v>7.6192979999999997</v>
       </c>
       <c r="AB18" s="1">
-        <v>1348.820000</v>
+        <v>1348.82</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.178000</v>
+        <v>-169.178</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>27439.971726</v>
       </c>
       <c r="AF18" s="1">
-        <v>7.622214</v>
+        <v>7.6222139999999996</v>
       </c>
       <c r="AG18" s="1">
-        <v>1361.670000</v>
+        <v>1361.67</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.544000</v>
+        <v>-178.54400000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>27450.201208</v>
+        <v>27450.201207999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>7.625056</v>
+        <v>7.6250559999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>1382.240000</v>
+        <v>1382.24</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.283000</v>
+        <v>-208.28299999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>27461.388474</v>
+        <v>27461.388473999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>7.628163</v>
+        <v>7.6281629999999998</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1403.730000</v>
+        <v>1403.73</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.179000</v>
+        <v>-252.179</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>27472.140251</v>
+        <v>27472.140251000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>7.631150</v>
+        <v>7.6311499999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1428.100000</v>
+        <v>1428.1</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.188000</v>
+        <v>-312.18799999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>27483.101174</v>
+        <v>27483.101173999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>7.634195</v>
+        <v>7.6341950000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1447.280000</v>
+        <v>1447.28</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.468000</v>
+        <v>-364.46800000000002</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>27494.460718</v>
+        <v>27494.460717999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>7.637350</v>
+        <v>7.6373499999999996</v>
       </c>
       <c r="BF18" s="1">
-        <v>1532.030000</v>
+        <v>1532.03</v>
       </c>
       <c r="BG18" s="1">
-        <v>-613.619000</v>
+        <v>-613.61900000000003</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>27505.836494</v>
+        <v>27505.836493999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>7.640510</v>
+        <v>7.6405099999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1686.190000</v>
+        <v>1686.19</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1060.560000</v>
+        <v>-1060.56</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>27517.137312</v>
+        <v>27517.137311999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>7.643649</v>
+        <v>7.6436489999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1980.630000</v>
+        <v>1980.63</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1834.710000</v>
+        <v>-1834.71</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>27528.485281</v>
+        <v>27528.485281000001</v>
       </c>
       <c r="BT18" s="1">
         <v>7.646801</v>
       </c>
       <c r="BU18" s="1">
-        <v>2370.060000</v>
+        <v>2370.06</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2727.940000</v>
+        <v>-2727.94</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>27539.655186</v>
       </c>
       <c r="BY18" s="1">
-        <v>7.649904</v>
+        <v>7.6499040000000003</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2850.270000</v>
+        <v>2850.27</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3706.660000</v>
+        <v>-3706.66</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>27552.266963</v>
+        <v>27552.266962999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>7.653407</v>
+        <v>7.6534069999999996</v>
       </c>
       <c r="CE18" s="1">
-        <v>4275.760000</v>
+        <v>4275.76</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6066.930000</v>
+        <v>-6066.93</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>27378.272871</v>
+        <v>27378.272871000001</v>
       </c>
       <c r="B19" s="1">
-        <v>7.605076</v>
+        <v>7.6050760000000004</v>
       </c>
       <c r="C19" s="1">
-        <v>1245.820000</v>
+        <v>1245.82</v>
       </c>
       <c r="D19" s="1">
-        <v>-308.251000</v>
+        <v>-308.25099999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>27388.693819</v>
@@ -4865,722 +5281,722 @@
         <v>7.607971</v>
       </c>
       <c r="H19" s="1">
-        <v>1271.490000</v>
+        <v>1271.49</v>
       </c>
       <c r="I19" s="1">
-        <v>-265.699000</v>
+        <v>-265.69900000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>27399.191148</v>
+        <v>27399.191148000002</v>
       </c>
       <c r="L19" s="1">
-        <v>7.610886</v>
+        <v>7.6108859999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>1306.470000</v>
+        <v>1306.47</v>
       </c>
       <c r="N19" s="1">
-        <v>-203.101000</v>
+        <v>-203.101</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>27409.748495</v>
       </c>
       <c r="Q19" s="1">
-        <v>7.613819</v>
+        <v>7.6138190000000003</v>
       </c>
       <c r="R19" s="1">
-        <v>1318.550000</v>
+        <v>1318.55</v>
       </c>
       <c r="S19" s="1">
-        <v>-185.017000</v>
+        <v>-185.017</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>27420.175889</v>
+        <v>27420.175888999998</v>
       </c>
       <c r="V19" s="1">
-        <v>7.616716</v>
+        <v>7.6167160000000003</v>
       </c>
       <c r="W19" s="1">
-        <v>1331.770000</v>
+        <v>1331.77</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.299000</v>
+        <v>-171.29900000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>27430.165315</v>
+        <v>27430.165314999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>7.619490</v>
+        <v>7.6194899999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1348.570000</v>
+        <v>1348.57</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.377000</v>
+        <v>-169.37700000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>27440.316438</v>
+        <v>27440.316438000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>7.622310</v>
+        <v>7.6223099999999997</v>
       </c>
       <c r="AG19" s="1">
-        <v>1361.680000</v>
+        <v>1361.68</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.529000</v>
+        <v>-178.529</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>27450.545464</v>
+        <v>27450.545463999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>7.625152</v>
+        <v>7.6251519999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1382.270000</v>
+        <v>1382.27</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.284000</v>
+        <v>-208.28399999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>27461.773400</v>
+        <v>27461.773399999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>7.628270</v>
+        <v>7.6282699999999997</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1403.760000</v>
+        <v>1403.76</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.165000</v>
+        <v>-252.16499999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>27472.810874</v>
+        <v>27472.810873999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>7.631336</v>
+        <v>7.6313360000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1428.090000</v>
+        <v>1428.09</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.224000</v>
+        <v>-312.22399999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>27483.773949</v>
+        <v>27483.773948999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>7.634382</v>
+        <v>7.6343819999999996</v>
       </c>
       <c r="BA19" s="1">
-        <v>1447.310000</v>
+        <v>1447.31</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.459000</v>
+        <v>-364.459</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>27494.890763</v>
+        <v>27494.890762999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>7.637470</v>
+        <v>7.6374700000000004</v>
       </c>
       <c r="BF19" s="1">
-        <v>1532.070000</v>
+        <v>1532.07</v>
       </c>
       <c r="BG19" s="1">
-        <v>-613.616000</v>
+        <v>-613.61599999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>27506.225327</v>
       </c>
       <c r="BJ19" s="1">
-        <v>7.640618</v>
+        <v>7.6406179999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1686.210000</v>
+        <v>1686.21</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1060.540000</v>
+        <v>-1060.54</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>27517.549029</v>
+        <v>27517.549029000002</v>
       </c>
       <c r="BO19" s="1">
         <v>7.643764</v>
       </c>
       <c r="BP19" s="1">
-        <v>1980.550000</v>
+        <v>1980.55</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1834.880000</v>
+        <v>-1834.88</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>27528.913629</v>
+        <v>27528.913628999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>7.646920</v>
+        <v>7.6469199999999997</v>
       </c>
       <c r="BU19" s="1">
-        <v>2370.180000</v>
+        <v>2370.1799999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2728.360000</v>
+        <v>-2728.36</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>27540.086241</v>
+        <v>27540.086241000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>7.650024</v>
+        <v>7.6500240000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2850.870000</v>
+        <v>2850.87</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3706.220000</v>
+        <v>-3706.22</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>27552.820497</v>
+        <v>27552.820497000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>7.653561</v>
+        <v>7.6535609999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>4273.450000</v>
+        <v>4273.45</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6077.870000</v>
+        <v>-6077.87</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>27378.616631</v>
+        <v>27378.616631000001</v>
       </c>
       <c r="B20" s="1">
-        <v>7.605171</v>
+        <v>7.6051710000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>1245.650000</v>
+        <v>1245.6500000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-308.069000</v>
+        <v>-308.06900000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>27389.039066</v>
+        <v>27389.039066000001</v>
       </c>
       <c r="G20" s="1">
         <v>7.608066</v>
       </c>
       <c r="H20" s="1">
-        <v>1270.940000</v>
+        <v>1270.94</v>
       </c>
       <c r="I20" s="1">
-        <v>-266.156000</v>
+        <v>-266.15600000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>27399.536859</v>
       </c>
       <c r="L20" s="1">
-        <v>7.610982</v>
+        <v>7.6109819999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1306.560000</v>
+        <v>1306.56</v>
       </c>
       <c r="N20" s="1">
-        <v>-203.373000</v>
+        <v>-203.37299999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>27410.442397</v>
+        <v>27410.442396999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>7.614012</v>
+        <v>7.6140119999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>1318.510000</v>
+        <v>1318.51</v>
       </c>
       <c r="S20" s="1">
-        <v>-185.080000</v>
+        <v>-185.08</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>27420.289473</v>
+        <v>27420.289473000001</v>
       </c>
       <c r="V20" s="1">
-        <v>7.616747</v>
+        <v>7.6167470000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>1331.650000</v>
+        <v>1331.65</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.351000</v>
+        <v>-171.351</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>27430.516482</v>
+        <v>27430.516481999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>7.619588</v>
+        <v>7.6195880000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>1348.690000</v>
+        <v>1348.69</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.233000</v>
+        <v>-169.233</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>27440.656694</v>
+        <v>27440.656694000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>7.622405</v>
+        <v>7.6224049999999997</v>
       </c>
       <c r="AG20" s="1">
-        <v>1361.730000</v>
+        <v>1361.73</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.551000</v>
+        <v>-178.55099999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>27450.895643</v>
       </c>
       <c r="AK20" s="1">
-        <v>7.625249</v>
+        <v>7.6252490000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>1382.250000</v>
+        <v>1382.25</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.240000</v>
+        <v>-208.24</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>27462.440984</v>
+        <v>27462.440984000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>7.628456</v>
+        <v>7.6284559999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1403.720000</v>
+        <v>1403.72</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.157000</v>
+        <v>-252.15700000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>27473.267658</v>
+        <v>27473.267658000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>7.631463</v>
+        <v>7.6314630000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1428.130000</v>
+        <v>1428.13</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.244000</v>
+        <v>-312.24400000000003</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>27484.180668</v>
+        <v>27484.180668000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>7.634495</v>
+        <v>7.6344950000000003</v>
       </c>
       <c r="BA20" s="1">
-        <v>1447.280000</v>
+        <v>1447.28</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.422000</v>
+        <v>-364.42200000000003</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>27495.251349</v>
+        <v>27495.251348999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>7.637570</v>
+        <v>7.6375700000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1532.070000</v>
+        <v>1532.07</v>
       </c>
       <c r="BG20" s="1">
-        <v>-613.616000</v>
+        <v>-613.61599999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>27506.600798</v>
+        <v>27506.600797999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>7.640722</v>
+        <v>7.6407220000000002</v>
       </c>
       <c r="BK20" s="1">
-        <v>1686.230000</v>
+        <v>1686.23</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1060.520000</v>
+        <v>-1060.52</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>27517.943312</v>
+        <v>27517.943311999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>7.643873</v>
+        <v>7.6438730000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1980.580000</v>
+        <v>1980.58</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1834.720000</v>
+        <v>-1834.72</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>27529.348847</v>
+        <v>27529.348847000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>7.647041</v>
+        <v>7.6470409999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>2370.140000</v>
+        <v>2370.14</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2728.650000</v>
+        <v>-2728.65</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>27540.506321</v>
+        <v>27540.506321000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>7.650141</v>
+        <v>7.6501409999999996</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2850.630000</v>
+        <v>2850.63</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3705.910000</v>
+        <v>-3705.91</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>27553.349761</v>
+        <v>27553.349761000001</v>
       </c>
       <c r="CD20" s="1">
         <v>7.653708</v>
       </c>
       <c r="CE20" s="1">
-        <v>4276.320000</v>
+        <v>4276.32</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6061.730000</v>
+        <v>-6061.73</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>27378.959334</v>
+        <v>27378.959333999999</v>
       </c>
       <c r="B21" s="1">
-        <v>7.605266</v>
+        <v>7.6052660000000003</v>
       </c>
       <c r="C21" s="1">
-        <v>1245.300000</v>
+        <v>1245.3</v>
       </c>
       <c r="D21" s="1">
-        <v>-308.456000</v>
+        <v>-308.45600000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>27389.725898</v>
+        <v>27389.725898000001</v>
       </c>
       <c r="G21" s="1">
         <v>7.608257</v>
       </c>
       <c r="H21" s="1">
-        <v>1270.380000</v>
+        <v>1270.3800000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-266.274000</v>
+        <v>-266.274</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>27400.233242</v>
+        <v>27400.233241999998</v>
       </c>
       <c r="L21" s="1">
-        <v>7.611176</v>
+        <v>7.6111760000000004</v>
       </c>
       <c r="M21" s="1">
-        <v>1306.610000</v>
+        <v>1306.6099999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-202.978000</v>
+        <v>-202.97800000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>27410.792572</v>
+        <v>27410.792571999998</v>
       </c>
       <c r="Q21" s="1">
         <v>7.614109</v>
       </c>
       <c r="R21" s="1">
-        <v>1318.500000</v>
+        <v>1318.5</v>
       </c>
       <c r="S21" s="1">
-        <v>-185.066000</v>
+        <v>-185.066</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>27420.631711</v>
+        <v>27420.631711000002</v>
       </c>
       <c r="V21" s="1">
-        <v>7.616842</v>
+        <v>7.6168420000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1331.550000</v>
+        <v>1331.55</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.219000</v>
+        <v>-171.21899999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>27430.864178</v>
       </c>
       <c r="AA21" s="1">
-        <v>7.619684</v>
+        <v>7.6196840000000003</v>
       </c>
       <c r="AB21" s="1">
-        <v>1348.740000</v>
+        <v>1348.74</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.113000</v>
+        <v>-169.113</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>27441.305956</v>
       </c>
       <c r="AF21" s="1">
-        <v>7.622585</v>
+        <v>7.6225849999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1361.640000</v>
+        <v>1361.64</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.537000</v>
+        <v>-178.53700000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>27451.578104</v>
       </c>
       <c r="AK21" s="1">
-        <v>7.625438</v>
+        <v>7.6254379999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1382.250000</v>
+        <v>1382.25</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.263000</v>
+        <v>-208.26300000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>27462.856167</v>
+        <v>27462.856167000002</v>
       </c>
       <c r="AP21" s="1">
         <v>7.628571</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1403.750000</v>
+        <v>1403.75</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.107000</v>
+        <v>-252.107</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>27473.631258</v>
+        <v>27473.631258000001</v>
       </c>
       <c r="AU21" s="1">
         <v>7.631564</v>
       </c>
       <c r="AV21" s="1">
-        <v>1428.090000</v>
+        <v>1428.09</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.201000</v>
+        <v>-312.20100000000002</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>27484.563051</v>
+        <v>27484.563051000001</v>
       </c>
       <c r="AZ21" s="1">
         <v>7.634601</v>
       </c>
       <c r="BA21" s="1">
-        <v>1447.270000</v>
+        <v>1447.27</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.489000</v>
+        <v>-364.48899999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>27495.614453</v>
+        <v>27495.614452999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>7.637671</v>
+        <v>7.6376710000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1532.110000</v>
+        <v>1532.11</v>
       </c>
       <c r="BG21" s="1">
-        <v>-613.580000</v>
+        <v>-613.58000000000004</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>27507.033806</v>
+        <v>27507.033805999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>7.640843</v>
+        <v>7.6408430000000003</v>
       </c>
       <c r="BK21" s="1">
-        <v>1686.270000</v>
+        <v>1686.27</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1060.570000</v>
+        <v>-1060.57</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>27518.759231</v>
       </c>
       <c r="BO21" s="1">
-        <v>7.644100</v>
+        <v>7.6440999999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1980.660000</v>
+        <v>1980.66</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1834.810000</v>
+        <v>-1834.81</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>27529.746113</v>
+        <v>27529.746113000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>7.647152</v>
+        <v>7.6471520000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>2370.430000</v>
+        <v>2370.4299999999998</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2729.260000</v>
+        <v>-2729.26</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>27540.928913</v>
@@ -5589,1059 +6005,1059 @@
         <v>7.650258</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2850.090000</v>
+        <v>2850.09</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3705.720000</v>
+        <v>-3705.72</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>27553.866559</v>
+        <v>27553.866558999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>7.653852</v>
+        <v>7.6538519999999997</v>
       </c>
       <c r="CE21" s="1">
-        <v>4261.550000</v>
+        <v>4261.55</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6059.340000</v>
+        <v>-6059.34</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>27379.642833</v>
+        <v>27379.642833000002</v>
       </c>
       <c r="B22" s="1">
-        <v>7.605456</v>
+        <v>7.6054560000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>1245.930000</v>
+        <v>1245.93</v>
       </c>
       <c r="D22" s="1">
-        <v>-308.726000</v>
+        <v>-308.726</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>27390.077159</v>
       </c>
       <c r="G22" s="1">
-        <v>7.608355</v>
+        <v>7.6083550000000004</v>
       </c>
       <c r="H22" s="1">
-        <v>1271.030000</v>
+        <v>1271.03</v>
       </c>
       <c r="I22" s="1">
-        <v>-266.175000</v>
+        <v>-266.17500000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>27400.583418</v>
+        <v>27400.583417999998</v>
       </c>
       <c r="L22" s="1">
-        <v>7.611273</v>
+        <v>7.6112729999999997</v>
       </c>
       <c r="M22" s="1">
-        <v>1307.140000</v>
+        <v>1307.1400000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-202.862000</v>
+        <v>-202.86199999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>27411.141756</v>
+        <v>27411.141756000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>7.614206</v>
+        <v>7.6142060000000003</v>
       </c>
       <c r="R22" s="1">
-        <v>1318.480000</v>
+        <v>1318.48</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.943000</v>
+        <v>-184.94300000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>27421.287918</v>
+        <v>27421.287918000002</v>
       </c>
       <c r="V22" s="1">
-        <v>7.617024</v>
+        <v>7.6170239999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>1331.560000</v>
+        <v>1331.56</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.098000</v>
+        <v>-171.09800000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>27431.521394</v>
+        <v>27431.521393999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>7.619867</v>
+        <v>7.6198670000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>1348.740000</v>
+        <v>1348.74</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.111000</v>
+        <v>-169.11099999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>27441.688869</v>
+        <v>27441.688869000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>7.622691</v>
+        <v>7.6226909999999997</v>
       </c>
       <c r="AG22" s="1">
-        <v>1361.620000</v>
+        <v>1361.62</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.588000</v>
+        <v>-178.58799999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>27451.944150</v>
+        <v>27451.944149999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>7.625540</v>
+        <v>7.62554</v>
       </c>
       <c r="AL22" s="1">
-        <v>1382.240000</v>
+        <v>1382.24</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.267000</v>
+        <v>-208.267</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>27463.241069</v>
       </c>
       <c r="AP22" s="1">
-        <v>7.628678</v>
+        <v>7.6286779999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1403.740000</v>
+        <v>1403.74</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.125000</v>
+        <v>-252.125</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>27473.991817</v>
+        <v>27473.991816999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>7.631664</v>
+        <v>7.6316639999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>1428.140000</v>
+        <v>1428.14</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.199000</v>
+        <v>-312.19900000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>27484.945962</v>
+        <v>27484.945962000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>7.634707</v>
+        <v>7.6347069999999997</v>
       </c>
       <c r="BA22" s="1">
-        <v>1447.290000</v>
+        <v>1447.29</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.430000</v>
+        <v>-364.43</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>27496.036048</v>
+        <v>27496.036048000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>7.637788</v>
+        <v>7.6377879999999996</v>
       </c>
       <c r="BF22" s="1">
-        <v>1532.050000</v>
+        <v>1532.05</v>
       </c>
       <c r="BG22" s="1">
-        <v>-613.575000</v>
+        <v>-613.57500000000005</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>27507.349045</v>
+        <v>27507.349044999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>7.640930</v>
+        <v>7.64093</v>
       </c>
       <c r="BK22" s="1">
-        <v>1686.160000</v>
+        <v>1686.16</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1060.590000</v>
+        <v>-1060.5899999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>27519.157517</v>
       </c>
       <c r="BO22" s="1">
-        <v>7.644210</v>
+        <v>7.6442100000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1980.570000</v>
+        <v>1980.57</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1834.770000</v>
+        <v>-1834.77</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>27530.159288</v>
+        <v>27530.159287999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>7.647266</v>
+        <v>7.6472660000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2370.370000</v>
+        <v>2370.37</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2729.730000</v>
+        <v>-2729.73</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>27541.353024</v>
       </c>
       <c r="BY22" s="1">
-        <v>7.650376</v>
+        <v>7.6503759999999996</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2850.520000</v>
+        <v>2850.52</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3706.430000</v>
+        <v>-3706.43</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>27554.381406</v>
       </c>
       <c r="CD22" s="1">
-        <v>7.653995</v>
+        <v>7.6539950000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4260.550000</v>
+        <v>4260.55</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6073.200000</v>
+        <v>-6073.2</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>27379.984069</v>
+        <v>27379.984068999998</v>
       </c>
       <c r="B23" s="1">
-        <v>7.605551</v>
+        <v>7.6055510000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>1246.140000</v>
+        <v>1246.1400000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-308.372000</v>
+        <v>-308.37200000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>27390.426841</v>
       </c>
       <c r="G23" s="1">
-        <v>7.608452</v>
+        <v>7.6084519999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>1271.390000</v>
+        <v>1271.3900000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-266.021000</v>
+        <v>-266.02100000000002</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>27400.930155</v>
+        <v>27400.930154999998</v>
       </c>
       <c r="L23" s="1">
-        <v>7.611369</v>
+        <v>7.6113689999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>1307.150000</v>
+        <v>1307.1500000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-202.672000</v>
+        <v>-202.672</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>27411.804448</v>
+        <v>27411.804447999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>7.614390</v>
+        <v>7.6143900000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>1318.570000</v>
+        <v>1318.57</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.884000</v>
+        <v>-184.88399999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>27421.664382</v>
+        <v>27421.664381999999</v>
       </c>
       <c r="V23" s="1">
-        <v>7.617129</v>
+        <v>7.6171290000000003</v>
       </c>
       <c r="W23" s="1">
-        <v>1331.640000</v>
+        <v>1331.64</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.145000</v>
+        <v>-171.14500000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>27431.909778</v>
+        <v>27431.909778000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>7.619975</v>
+        <v>7.6199750000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>1348.610000</v>
+        <v>1348.61</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.880000</v>
+        <v>-168.88</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>27442.033091</v>
+        <v>27442.033091000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>7.622787</v>
+        <v>7.6227869999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>1361.750000</v>
+        <v>1361.75</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.520000</v>
+        <v>-178.52</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>27452.352394</v>
+        <v>27452.352394000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>7.625653</v>
+        <v>7.6256529999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>1382.270000</v>
+        <v>1382.27</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.237000</v>
+        <v>-208.23699999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>27463.601623</v>
+        <v>27463.601622999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>7.628778</v>
+        <v>7.6287779999999996</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1403.760000</v>
+        <v>1403.76</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.155000</v>
+        <v>-252.155</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>27474.409976</v>
+        <v>27474.409975999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>7.631781</v>
+        <v>7.6317810000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1428.100000</v>
+        <v>1428.1</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.217000</v>
+        <v>-312.21699999999998</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>27485.441466</v>
       </c>
       <c r="AZ23" s="1">
-        <v>7.634845</v>
+        <v>7.6348450000000003</v>
       </c>
       <c r="BA23" s="1">
-        <v>1447.290000</v>
+        <v>1447.29</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.456000</v>
+        <v>-364.45600000000002</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>27496.335595</v>
       </c>
       <c r="BE23" s="1">
-        <v>7.637871</v>
+        <v>7.6378709999999996</v>
       </c>
       <c r="BF23" s="1">
-        <v>1532.130000</v>
+        <v>1532.13</v>
       </c>
       <c r="BG23" s="1">
-        <v>-613.621000</v>
+        <v>-613.62099999999998</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>27507.736140</v>
+        <v>27507.736140000001</v>
       </c>
       <c r="BJ23" s="1">
         <v>7.641038</v>
       </c>
       <c r="BK23" s="1">
-        <v>1686.210000</v>
+        <v>1686.21</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1060.560000</v>
+        <v>-1060.56</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>27519.570189</v>
+        <v>27519.570188999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>7.644325</v>
+        <v>7.6443250000000003</v>
       </c>
       <c r="BP23" s="1">
-        <v>1980.630000</v>
+        <v>1980.63</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1834.750000</v>
+        <v>-1834.75</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>27530.597742</v>
+        <v>27530.597742000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>7.647388</v>
+        <v>7.6473880000000003</v>
       </c>
       <c r="BU23" s="1">
-        <v>2369.700000</v>
+        <v>2369.6999999999998</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2730.030000</v>
+        <v>-2730.03</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>27541.778571</v>
+        <v>27541.778570999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>7.650494</v>
+        <v>7.6504940000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2850.450000</v>
+        <v>2850.45</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3706.170000</v>
+        <v>-3706.17</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>27554.902206</v>
+        <v>27554.902205999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>7.654140</v>
+        <v>7.6541399999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>4278.580000</v>
+        <v>4278.58</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6067.500000</v>
+        <v>-6067.5</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>27380.329809</v>
+        <v>27380.329808999999</v>
       </c>
       <c r="B24" s="1">
-        <v>7.605647</v>
+        <v>7.6056470000000003</v>
       </c>
       <c r="C24" s="1">
-        <v>1246.220000</v>
+        <v>1246.22</v>
       </c>
       <c r="D24" s="1">
-        <v>-308.016000</v>
+        <v>-308.01600000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>27391.092470</v>
+        <v>27391.09247</v>
       </c>
       <c r="G24" s="1">
-        <v>7.608637</v>
+        <v>7.6086369999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1270.600000</v>
+        <v>1270.5999999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-266.345000</v>
+        <v>-266.34500000000003</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>27401.586824</v>
+        <v>27401.586824000002</v>
       </c>
       <c r="L24" s="1">
-        <v>7.611552</v>
+        <v>7.6115519999999997</v>
       </c>
       <c r="M24" s="1">
-        <v>1306.910000</v>
+        <v>1306.9100000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-202.748000</v>
+        <v>-202.74799999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>27412.187323</v>
+        <v>27412.187322999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>7.614496</v>
+        <v>7.6144959999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1318.570000</v>
+        <v>1318.57</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.892000</v>
+        <v>-184.892</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>27422.011613</v>
+        <v>27422.011612999999</v>
       </c>
       <c r="V24" s="1">
-        <v>7.617225</v>
+        <v>7.6172250000000004</v>
       </c>
       <c r="W24" s="1">
-        <v>1331.650000</v>
+        <v>1331.65</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.243000</v>
+        <v>-171.24299999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>27432.258433</v>
+        <v>27432.258432999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>7.620072</v>
+        <v>7.6200720000000004</v>
       </c>
       <c r="AB24" s="1">
-        <v>1348.800000</v>
+        <v>1348.8</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.950000</v>
+        <v>-168.95</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>27442.380788</v>
+        <v>27442.380787999999</v>
       </c>
       <c r="AF24" s="1">
         <v>7.622884</v>
       </c>
       <c r="AG24" s="1">
-        <v>1361.640000</v>
+        <v>1361.64</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.636000</v>
+        <v>-178.636</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>27452.640038</v>
+        <v>27452.640038000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>7.625733</v>
+        <v>7.6257330000000003</v>
       </c>
       <c r="AL24" s="1">
-        <v>1382.250000</v>
+        <v>1382.25</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.243000</v>
+        <v>-208.24299999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>27464.021238</v>
+        <v>27464.021238000001</v>
       </c>
       <c r="AP24" s="1">
         <v>7.628895</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1403.720000</v>
+        <v>1403.72</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.121000</v>
+        <v>-252.12100000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>27474.725930</v>
+        <v>27474.725930000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>7.631868</v>
+        <v>7.6318679999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1428.110000</v>
+        <v>1428.11</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.217000</v>
+        <v>-312.21699999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>27485.672105</v>
+        <v>27485.672105000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>7.634909</v>
+        <v>7.6349090000000004</v>
       </c>
       <c r="BA24" s="1">
-        <v>1447.340000</v>
+        <v>1447.34</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.418000</v>
+        <v>-364.41800000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>27496.694731</v>
       </c>
       <c r="BE24" s="1">
-        <v>7.637971</v>
+        <v>7.6379710000000003</v>
       </c>
       <c r="BF24" s="1">
-        <v>1532.050000</v>
+        <v>1532.05</v>
       </c>
       <c r="BG24" s="1">
-        <v>-613.594000</v>
+        <v>-613.59400000000005</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>27508.125997</v>
+        <v>27508.125996999999</v>
       </c>
       <c r="BJ24" s="1">
         <v>7.641146</v>
       </c>
       <c r="BK24" s="1">
-        <v>1686.160000</v>
+        <v>1686.16</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1060.580000</v>
+        <v>-1060.58</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>27519.985869</v>
       </c>
       <c r="BO24" s="1">
-        <v>7.644441</v>
+        <v>7.6444409999999996</v>
       </c>
       <c r="BP24" s="1">
-        <v>1980.540000</v>
+        <v>1980.54</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1834.760000</v>
+        <v>-1834.76</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>27531.012894</v>
       </c>
       <c r="BT24" s="1">
-        <v>7.647504</v>
+        <v>7.6475039999999996</v>
       </c>
       <c r="BU24" s="1">
-        <v>2369.810000</v>
+        <v>2369.81</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2730.610000</v>
+        <v>-2730.61</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>27542.219502</v>
       </c>
       <c r="BY24" s="1">
-        <v>7.650617</v>
+        <v>7.6506169999999996</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2850.380000</v>
+        <v>2850.38</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3705.570000</v>
+        <v>-3705.57</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>27555.443373</v>
+        <v>27555.443372999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>7.654290</v>
+        <v>7.6542899999999996</v>
       </c>
       <c r="CE24" s="1">
-        <v>4254.880000</v>
+        <v>4254.88</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6061.870000</v>
+        <v>-6061.87</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>27380.991971</v>
+        <v>27380.991970999999</v>
       </c>
       <c r="B25" s="1">
-        <v>7.605831</v>
+        <v>7.6058310000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1246.030000</v>
+        <v>1246.03</v>
       </c>
       <c r="D25" s="1">
-        <v>-308.032000</v>
+        <v>-308.03199999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>27391.460503</v>
+        <v>27391.460502999998</v>
       </c>
       <c r="G25" s="1">
-        <v>7.608739</v>
+        <v>7.6087389999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1270.890000</v>
+        <v>1270.8900000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-266.307000</v>
+        <v>-266.30700000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>27401.962296</v>
+        <v>27401.962296000002</v>
       </c>
       <c r="L25" s="1">
         <v>7.611656</v>
       </c>
       <c r="M25" s="1">
-        <v>1307.340000</v>
+        <v>1307.3399999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-203.001000</v>
+        <v>-203.001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>27412.536506</v>
       </c>
       <c r="Q25" s="1">
-        <v>7.614593</v>
+        <v>7.6145930000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>1318.580000</v>
+        <v>1318.58</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.976000</v>
+        <v>-184.976</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>27422.356804</v>
+        <v>27422.356803999999</v>
       </c>
       <c r="V25" s="1">
-        <v>7.617321</v>
+        <v>7.6173209999999996</v>
       </c>
       <c r="W25" s="1">
-        <v>1331.670000</v>
+        <v>1331.67</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.248000</v>
+        <v>-171.24799999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>27432.610593</v>
+        <v>27432.610593000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>7.620170</v>
+        <v>7.6201699999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1348.690000</v>
+        <v>1348.69</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.101000</v>
+        <v>-169.101</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>27442.809330</v>
+        <v>27442.80933</v>
       </c>
       <c r="AF25" s="1">
-        <v>7.623003</v>
+        <v>7.6230029999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>1361.670000</v>
+        <v>1361.67</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.704000</v>
+        <v>-178.70400000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>27453.335429</v>
+        <v>27453.335428999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>7.625927</v>
+        <v>7.6259269999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1382.290000</v>
+        <v>1382.29</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.284000</v>
+        <v>-208.28399999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>27464.320327</v>
+        <v>27464.320327000001</v>
       </c>
       <c r="AP25" s="1">
         <v>7.628978</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1403.760000</v>
+        <v>1403.76</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.143000</v>
+        <v>-252.143</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>27475.091944</v>
       </c>
       <c r="AU25" s="1">
-        <v>7.631970</v>
+        <v>7.6319699999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1428.110000</v>
+        <v>1428.11</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.194000</v>
+        <v>-312.19400000000002</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>27486.022777</v>
+        <v>27486.022776999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>7.635006</v>
+        <v>7.6350059999999997</v>
       </c>
       <c r="BA25" s="1">
-        <v>1447.270000</v>
+        <v>1447.27</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.444000</v>
+        <v>-364.44400000000002</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>27497.058298</v>
       </c>
       <c r="BE25" s="1">
-        <v>7.638072</v>
+        <v>7.6380720000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1532.120000</v>
+        <v>1532.12</v>
       </c>
       <c r="BG25" s="1">
-        <v>-613.588000</v>
+        <v>-613.58799999999997</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>27508.874954</v>
+        <v>27508.874953999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>7.641354</v>
+        <v>7.6413539999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1686.240000</v>
+        <v>1686.24</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1060.540000</v>
+        <v>-1060.54</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>27520.393089</v>
+        <v>27520.393089000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>7.644554</v>
+        <v>7.6445540000000003</v>
       </c>
       <c r="BP25" s="1">
-        <v>1980.420000</v>
+        <v>1980.42</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1834.780000</v>
+        <v>-1834.78</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>27531.438002</v>
+        <v>27531.438001999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>7.647622</v>
+        <v>7.6476220000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2369.070000</v>
+        <v>2369.0700000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2730.850000</v>
+        <v>-2730.85</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>27542.640606</v>
+        <v>27542.640606000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>7.650734</v>
+        <v>7.6507339999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2849.790000</v>
+        <v>2849.79</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3705.370000</v>
+        <v>-3705.37</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>27556.288525</v>
       </c>
       <c r="CD25" s="1">
-        <v>7.654525</v>
+        <v>7.6545249999999996</v>
       </c>
       <c r="CE25" s="1">
-        <v>4275.520000</v>
+        <v>4275.5200000000004</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6057.600000</v>
+        <v>-6057.6</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>27381.352562</v>
       </c>
@@ -6649,255 +7065,256 @@
         <v>7.605931</v>
       </c>
       <c r="C26" s="1">
-        <v>1246.120000</v>
+        <v>1246.1199999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-308.039000</v>
+        <v>-308.03899999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>27391.805222</v>
+        <v>27391.805221999999</v>
       </c>
       <c r="G26" s="1">
         <v>7.608835</v>
       </c>
       <c r="H26" s="1">
-        <v>1271.000000</v>
+        <v>1271</v>
       </c>
       <c r="I26" s="1">
-        <v>-265.768000</v>
+        <v>-265.76799999999997</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>27402.304537</v>
       </c>
       <c r="L26" s="1">
-        <v>7.611751</v>
+        <v>7.6117509999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1306.900000</v>
+        <v>1306.9000000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-203.267000</v>
+        <v>-203.267</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>27412.884698</v>
+        <v>27412.884698000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>7.614690</v>
+        <v>7.6146900000000004</v>
       </c>
       <c r="R26" s="1">
-        <v>1318.590000</v>
+        <v>1318.59</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.903000</v>
+        <v>-184.90299999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>27422.772942</v>
       </c>
       <c r="V26" s="1">
-        <v>7.617437</v>
+        <v>7.6174369999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>1331.660000</v>
+        <v>1331.66</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.213000</v>
+        <v>-171.21299999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>27433.038821</v>
+        <v>27433.038820999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>7.620289</v>
+        <v>7.6202889999999996</v>
       </c>
       <c r="AB26" s="1">
-        <v>1348.530000</v>
+        <v>1348.53</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.092000</v>
+        <v>-169.09200000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>27443.085601</v>
+        <v>27443.085600999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>7.623079</v>
+        <v>7.6230789999999997</v>
       </c>
       <c r="AG26" s="1">
-        <v>1361.630000</v>
+        <v>1361.63</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.657000</v>
+        <v>-178.65700000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>27453.685140</v>
+        <v>27453.685140000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>7.626024</v>
+        <v>7.6260240000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1382.260000</v>
+        <v>1382.26</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.287000</v>
+        <v>-208.28700000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>27464.678935</v>
       </c>
       <c r="AP26" s="1">
-        <v>7.629077</v>
+        <v>7.6290769999999997</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1403.760000</v>
+        <v>1403.76</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.127000</v>
+        <v>-252.12700000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>27475.455015</v>
       </c>
       <c r="AU26" s="1">
-        <v>7.632071</v>
+        <v>7.6320709999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>1428.110000</v>
+        <v>1428.11</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.179000</v>
+        <v>-312.17899999999997</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>27486.749913</v>
       </c>
       <c r="AZ26" s="1">
-        <v>7.635208</v>
+        <v>7.6352080000000004</v>
       </c>
       <c r="BA26" s="1">
-        <v>1447.300000</v>
+        <v>1447.3</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.443000</v>
+        <v>-364.44299999999998</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>27497.779977</v>
+        <v>27497.779976999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>7.638272</v>
+        <v>7.6382719999999997</v>
       </c>
       <c r="BF26" s="1">
-        <v>1532.060000</v>
+        <v>1532.06</v>
       </c>
       <c r="BG26" s="1">
-        <v>-613.551000</v>
+        <v>-613.55100000000004</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>27509.277740</v>
+        <v>27509.277740000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>7.641466</v>
+        <v>7.6414660000000003</v>
       </c>
       <c r="BK26" s="1">
-        <v>1686.210000</v>
+        <v>1686.21</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1060.500000</v>
+        <v>-1060.5</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>27520.789373</v>
       </c>
       <c r="BO26" s="1">
-        <v>7.644664</v>
+        <v>7.6446639999999997</v>
       </c>
       <c r="BP26" s="1">
-        <v>1980.660000</v>
+        <v>1980.66</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1834.760000</v>
+        <v>-1834.76</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>27531.871964</v>
+        <v>27531.871964000002</v>
       </c>
       <c r="BT26" s="1">
         <v>7.647742</v>
       </c>
       <c r="BU26" s="1">
-        <v>2368.710000</v>
+        <v>2368.71</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2731.370000</v>
+        <v>-2731.37</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>27543.377693</v>
+        <v>27543.377692999999</v>
       </c>
       <c r="BY26" s="1">
         <v>7.650938</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2849.950000</v>
+        <v>2849.95</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3705.190000</v>
+        <v>-3705.19</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>27556.520155</v>
+        <v>27556.520154999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>7.654589</v>
+        <v>7.6545889999999996</v>
       </c>
       <c r="CE26" s="1">
-        <v>4277.660000</v>
+        <v>4277.66</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6060.610000</v>
+        <v>-6060.61</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>